--- a/Results/MultivModels_DOnsetMin#11#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/Parameters_model#LR_name#CK+Dem.xlsx
+++ b/Results/MultivModels_DOnsetMin#11#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/Parameters_model#LR_name#CK+Dem.xlsx
@@ -438,31 +438,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-1.298438731498136</v>
+        <v>-1.17414342537702</v>
       </c>
       <c r="C2">
-        <v>0.685931902767438</v>
+        <v>0.6752493755444166</v>
       </c>
       <c r="D2">
-        <v>0.1672007691275489</v>
+        <v>0.1092019429163903</v>
       </c>
       <c r="E2">
-        <v>1.327756597512603</v>
+        <v>1.173963667305299</v>
       </c>
       <c r="F2">
-        <v>0.8222996737197013</v>
+        <v>0.4656177861852301</v>
       </c>
       <c r="G2">
-        <v>0.6046972495479838</v>
+        <v>0.5471444883280765</v>
       </c>
       <c r="H2">
-        <v>-0.0363916234776793</v>
+        <v>-0.1325356016605776</v>
       </c>
       <c r="I2">
-        <v>-1.217387435809445</v>
+        <v>-0.3730014579398318</v>
       </c>
       <c r="J2">
-        <v>-0.1937262187462387</v>
+        <v>-0.275261560304926</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -470,31 +470,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.4892625771931258</v>
+        <v>-1.960534883876692</v>
       </c>
       <c r="C3">
-        <v>0.2367002125309586</v>
+        <v>0.4072739819770133</v>
       </c>
       <c r="D3">
-        <v>0.2443157965495927</v>
+        <v>0.2574251017224684</v>
       </c>
       <c r="E3">
-        <v>0.2660256852696682</v>
+        <v>1.425904490791169</v>
       </c>
       <c r="F3">
-        <v>0.2771564422955692</v>
+        <v>0.6996219923030349</v>
       </c>
       <c r="G3">
-        <v>0.3277519011975715</v>
+        <v>0.6000543769254421</v>
       </c>
       <c r="H3">
-        <v>0.1536718600551958</v>
+        <v>0.4785480010799283</v>
       </c>
       <c r="I3">
-        <v>-0.1347117544480274</v>
+        <v>-0.6206229455106443</v>
       </c>
       <c r="J3">
-        <v>-0.1497859116347922</v>
+        <v>-0.4003956396590679</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -502,31 +502,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.002460988810961095</v>
+        <v>-1.743253157926959</v>
       </c>
       <c r="C4">
-        <v>0.001248836432511706</v>
+        <v>0.6996448157164776</v>
       </c>
       <c r="D4">
-        <v>0.0007692899074623945</v>
+        <v>0.3559481061851961</v>
       </c>
       <c r="E4">
-        <v>0.001649802643353521</v>
+        <v>1.188640051129502</v>
       </c>
       <c r="F4">
-        <v>0.001692153058807852</v>
+        <v>0.6547400491795492</v>
       </c>
       <c r="G4">
-        <v>0.001877211013868446</v>
+        <v>0.5528553682756149</v>
       </c>
       <c r="H4">
-        <v>0.0007029101232496654</v>
+        <v>0.2894397104709507</v>
       </c>
       <c r="I4">
-        <v>-0.0002761873529089399</v>
+        <v>-0.5470011267153526</v>
       </c>
       <c r="J4">
-        <v>-0.0007757148007303498</v>
+        <v>-0.1174463213569525</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -534,31 +534,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-2.47505397346645</v>
+        <v>-2.864122552611341</v>
       </c>
       <c r="C5">
-        <v>0.5702415442276051</v>
+        <v>0.873382452983387</v>
       </c>
       <c r="D5">
-        <v>0.0979567057099099</v>
+        <v>0.3787815672901004</v>
       </c>
       <c r="E5">
-        <v>2.559709183243672</v>
+        <v>2.462035262797905</v>
       </c>
       <c r="F5">
-        <v>0.9732200410560458</v>
+        <v>0.9514944892709277</v>
       </c>
       <c r="G5">
-        <v>0.6570555621604633</v>
+        <v>0.3820363401382783</v>
       </c>
       <c r="H5">
-        <v>-0.2364121185637909</v>
+        <v>0.1958039193644052</v>
       </c>
       <c r="I5">
-        <v>-0.5578622688541709</v>
+        <v>-0.9933208217828657</v>
       </c>
       <c r="J5">
-        <v>-0.7380248976634248</v>
+        <v>-0.9567530361718165</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -566,31 +566,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-1.927978567994923</v>
+        <v>-0.7501748661373194</v>
       </c>
       <c r="C6">
-        <v>0.6480483124604209</v>
+        <v>0.2762775264679406</v>
       </c>
       <c r="D6">
-        <v>0.3364163952078259</v>
+        <v>0.2259481341481935</v>
       </c>
       <c r="E6">
-        <v>0.8712399080247915</v>
+        <v>0.5570400294657538</v>
       </c>
       <c r="F6">
-        <v>0.9469967037284547</v>
+        <v>0.3796502796405155</v>
       </c>
       <c r="G6">
-        <v>0.8994027525388968</v>
+        <v>0.3204664399579003</v>
       </c>
       <c r="H6">
-        <v>-0.08370395176896002</v>
+        <v>0.1670804328076115</v>
       </c>
       <c r="I6">
-        <v>-0.4806561285166202</v>
+        <v>-0.3400803315735032</v>
       </c>
       <c r="J6">
-        <v>-0.5242371832918958</v>
+        <v>-0.1942412801438012</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -598,31 +598,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.6177237991778146</v>
+        <v>-0.5065748888203101</v>
       </c>
       <c r="C7">
-        <v>0.307598246613942</v>
+        <v>0.2527766785405012</v>
       </c>
       <c r="D7">
-        <v>0.1238017755365505</v>
+        <v>0.09974131624095875</v>
       </c>
       <c r="E7">
-        <v>0.4533543815192287</v>
+        <v>0.46914370378505</v>
       </c>
       <c r="F7">
-        <v>0.4586710817018855</v>
+        <v>0.2770628389379434</v>
       </c>
       <c r="G7">
-        <v>0.3605903543658802</v>
+        <v>0.2439456309897494</v>
       </c>
       <c r="H7">
-        <v>0.163793607685419</v>
+        <v>0.04871498031587446</v>
       </c>
       <c r="I7">
-        <v>-0.2212372388150777</v>
+        <v>-0.1798701830656906</v>
       </c>
       <c r="J7">
-        <v>-0.1158890566918052</v>
+        <v>-0.09003334574163421</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -630,31 +630,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-1.636975297738448</v>
+        <v>-0.2222595749227121</v>
       </c>
       <c r="C8">
-        <v>0.7058194190634972</v>
+        <v>0.08622262201960314</v>
       </c>
       <c r="D8">
-        <v>0.3226778121660018</v>
+        <v>0.1007084701606976</v>
       </c>
       <c r="E8">
-        <v>1.988112973395065</v>
+        <v>0.165254663095284</v>
       </c>
       <c r="F8">
-        <v>0.6644117123732461</v>
+        <v>0.1109460311857337</v>
       </c>
       <c r="G8">
-        <v>0.7763530809533177</v>
+        <v>0.09600438335638635</v>
       </c>
       <c r="H8">
-        <v>-0.6877833000567091</v>
+        <v>0.07562308910146923</v>
       </c>
       <c r="I8">
-        <v>-1.122736898190882</v>
+        <v>-0.05203448269856701</v>
       </c>
       <c r="J8">
-        <v>-0.1262207248929969</v>
+        <v>0.03327146646040369</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -662,31 +662,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.02540063340711043</v>
+        <v>-0.6278528911349862</v>
       </c>
       <c r="C9">
-        <v>0.01317610577988953</v>
+        <v>0.2110998302591261</v>
       </c>
       <c r="D9">
-        <v>0.008629013160300649</v>
+        <v>0.1741260188794526</v>
       </c>
       <c r="E9">
-        <v>0.0177770053219116</v>
+        <v>0.3151920479429789</v>
       </c>
       <c r="F9">
-        <v>0.01502316638117982</v>
+        <v>0.4804315831501631</v>
       </c>
       <c r="G9">
-        <v>0.01497316915529111</v>
+        <v>0.44623103974154</v>
       </c>
       <c r="H9">
-        <v>0.01012349039089267</v>
+        <v>0.1132992358946524</v>
       </c>
       <c r="I9">
-        <v>-0.002774475005470418</v>
+        <v>-0.2917043315474083</v>
       </c>
       <c r="J9">
-        <v>-0.01082643100198768</v>
+        <v>-0.07172668173675999</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -694,31 +694,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-1.666254225741451</v>
+        <v>-0.03305150548309188</v>
       </c>
       <c r="C10">
-        <v>0.1855421118060155</v>
+        <v>0.01113066998421991</v>
       </c>
       <c r="D10">
-        <v>0.4030253670022991</v>
+        <v>0.01330128882576415</v>
       </c>
       <c r="E10">
-        <v>1.489207271839745</v>
+        <v>0.02226847045097227</v>
       </c>
       <c r="F10">
-        <v>0.8707086629356725</v>
+        <v>0.01968521908389508</v>
       </c>
       <c r="G10">
-        <v>0.3038652475745562</v>
+        <v>0.01794769615464992</v>
       </c>
       <c r="H10">
-        <v>-0.04475459969187912</v>
+        <v>0.00367958956018242</v>
       </c>
       <c r="I10">
-        <v>-0.609643172632077</v>
+        <v>-0.005874830346147729</v>
       </c>
       <c r="J10">
-        <v>-0.4532215238816052</v>
+        <v>-0.0002545623521829137</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -726,31 +726,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.002861195437425609</v>
+        <v>-1.886448927225957</v>
       </c>
       <c r="C11">
-        <v>0.0008994124771504043</v>
+        <v>0.9590432714453132</v>
       </c>
       <c r="D11">
-        <v>0.001562249993749626</v>
+        <v>0.3241691575686171</v>
       </c>
       <c r="E11">
-        <v>0.002213650454785798</v>
+        <v>1.323838095656393</v>
       </c>
       <c r="F11">
-        <v>0.001514020037890258</v>
+        <v>0.6460273994093982</v>
       </c>
       <c r="G11">
-        <v>0.001394000674158386</v>
+        <v>0.7795491062442451</v>
       </c>
       <c r="H11">
-        <v>0.001303050474491647</v>
+        <v>0.2603066455930659</v>
       </c>
       <c r="I11">
-        <v>-0.0002766400757122459</v>
+        <v>-0.8968381844973052</v>
       </c>
       <c r="J11">
-        <v>-0.0005187762791555387</v>
+        <v>-0.1417487409137838</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -758,31 +758,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.02818631577900573</v>
+        <v>-2.885125232000879</v>
       </c>
       <c r="C12">
-        <v>0.01202380092663085</v>
+        <v>0.7482028208432331</v>
       </c>
       <c r="D12">
-        <v>0.009544582536666072</v>
+        <v>-0.01706506521176999</v>
       </c>
       <c r="E12">
-        <v>0.01890804434080277</v>
+        <v>2.402203708427327</v>
       </c>
       <c r="F12">
-        <v>0.01996650792886355</v>
+        <v>1.220753288299346</v>
       </c>
       <c r="G12">
-        <v>0.01773194590130334</v>
+        <v>0.1874725028914048</v>
       </c>
       <c r="H12">
-        <v>0.004624145957900787</v>
+        <v>0.2573805198876178</v>
       </c>
       <c r="I12">
-        <v>-0.002752100934791825</v>
+        <v>-0.3863497477627285</v>
       </c>
       <c r="J12">
-        <v>-0.005514044452704464</v>
+        <v>-0.5076260275213063</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -790,31 +790,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.002402424036073441</v>
+        <v>-0.6807065138418023</v>
       </c>
       <c r="C13">
-        <v>0.001047436952883996</v>
+        <v>0.2638741186158336</v>
       </c>
       <c r="D13">
-        <v>0.001367185160124212</v>
+        <v>0.2652037499579015</v>
       </c>
       <c r="E13">
-        <v>0.00191186458374249</v>
+        <v>0.5858971507480845</v>
       </c>
       <c r="F13">
-        <v>0.001748038842444808</v>
+        <v>0.3851137838182633</v>
       </c>
       <c r="G13">
-        <v>0.001212531903117072</v>
+        <v>0.2378703753789702</v>
       </c>
       <c r="H13">
-        <v>0.0009542009356480252</v>
+        <v>0.1255019679489644</v>
       </c>
       <c r="I13">
-        <v>-0.0002763624983754023</v>
+        <v>-0.3204836747438053</v>
       </c>
       <c r="J13">
-        <v>-2.130447718796744E-05</v>
+        <v>-0.1438652358704056</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -822,31 +822,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-1.64000724833784</v>
+        <v>-0.658227267650875</v>
       </c>
       <c r="C14">
-        <v>1.296482151635195</v>
+        <v>0.1638597414822535</v>
       </c>
       <c r="D14">
-        <v>-0.4371639910842028</v>
+        <v>0.2217415176699371</v>
       </c>
       <c r="E14">
-        <v>1.685110896914974</v>
+        <v>0.3385606229490373</v>
       </c>
       <c r="F14">
-        <v>1.065927034502735</v>
+        <v>0.3880732460623947</v>
       </c>
       <c r="G14">
-        <v>0.6953142293375222</v>
+        <v>0.3669334514851277</v>
       </c>
       <c r="H14">
-        <v>0.7411733988069722</v>
+        <v>0.1491630628832262</v>
       </c>
       <c r="I14">
-        <v>-2.157066080504258</v>
+        <v>-0.1708445602529471</v>
       </c>
       <c r="J14">
-        <v>-0.17755830467033</v>
+        <v>-0.08271656617287337</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -854,31 +854,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.02200955469450393</v>
+        <v>-1.390606898530087</v>
       </c>
       <c r="C15">
-        <v>0.0138745989413146</v>
+        <v>0.5494113228738917</v>
       </c>
       <c r="D15">
-        <v>0.008031236467897607</v>
+        <v>0.001137084572615801</v>
       </c>
       <c r="E15">
-        <v>0.01728481418721544</v>
+        <v>0.8212382379189209</v>
       </c>
       <c r="F15">
-        <v>0.01595058089068293</v>
+        <v>0.9295594140826566</v>
       </c>
       <c r="G15">
-        <v>0.01513057961564678</v>
+        <v>0.6278931598971256</v>
       </c>
       <c r="H15">
-        <v>0.004966030867526012</v>
+        <v>0.07165644963528314</v>
       </c>
       <c r="I15">
-        <v>-0.002750023341569613</v>
+        <v>-0.5018133297745627</v>
       </c>
       <c r="J15">
-        <v>-0.003337152374012368</v>
+        <v>-0.4264832593031261</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -886,31 +886,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.5342563909487947</v>
+        <v>-1.141680685334131</v>
       </c>
       <c r="C16">
-        <v>0.3024599389965774</v>
+        <v>0.573857589230048</v>
       </c>
       <c r="D16">
-        <v>0.1675654903934611</v>
+        <v>-0.2367744784360828</v>
       </c>
       <c r="E16">
-        <v>0.2972044059408142</v>
+        <v>1.143488168224093</v>
       </c>
       <c r="F16">
-        <v>0.3170447654274796</v>
+        <v>0.7511904850817385</v>
       </c>
       <c r="G16">
-        <v>0.3417295654090836</v>
+        <v>0.209843746315989</v>
       </c>
       <c r="H16">
-        <v>0.03869820773078656</v>
+        <v>0.06429561778786742</v>
       </c>
       <c r="I16">
-        <v>-0.1138342839626396</v>
+        <v>-0.5453768482670251</v>
       </c>
       <c r="J16">
-        <v>-0.130406062760406</v>
+        <v>-0.3243219721284756</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -918,31 +918,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-4.209686047699611</v>
+        <v>-0.8458400947699358</v>
       </c>
       <c r="C17">
-        <v>0.6745449902117285</v>
+        <v>0.3004413783327051</v>
       </c>
       <c r="D17">
-        <v>1.058801976987829</v>
+        <v>0.3292698687626665</v>
       </c>
       <c r="E17">
-        <v>0.9471082269336677</v>
+        <v>0.4569113574862309</v>
       </c>
       <c r="F17">
-        <v>2.055865960818134</v>
+        <v>0.3627600287972429</v>
       </c>
       <c r="G17">
-        <v>1.973131870145668</v>
+        <v>0.3472645061186855</v>
       </c>
       <c r="H17">
-        <v>0.3682823774792227</v>
+        <v>0.2691156420916694</v>
       </c>
       <c r="I17">
-        <v>-2.434662404723092</v>
+        <v>-0.2925982176445223</v>
       </c>
       <c r="J17">
-        <v>-0.9202238151256429</v>
+        <v>-0.1585076186980095</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -950,31 +950,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.9128750190082174</v>
+        <v>-0.7012070141004609</v>
       </c>
       <c r="C18">
-        <v>0.7001826727986094</v>
+        <v>0.25603019915652</v>
       </c>
       <c r="D18">
-        <v>-0.0429679919462387</v>
+        <v>0.2107007881704512</v>
       </c>
       <c r="E18">
-        <v>1.307982720935882</v>
+        <v>0.3433724461320747</v>
       </c>
       <c r="F18">
-        <v>0.4502385437747905</v>
+        <v>0.3861306265416969</v>
       </c>
       <c r="G18">
-        <v>0.4867595216351593</v>
+        <v>0.3631206330546339</v>
       </c>
       <c r="H18">
-        <v>0.07893010215287403</v>
+        <v>0.03712060078683578</v>
       </c>
       <c r="I18">
-        <v>-0.9013295339420284</v>
+        <v>-0.188211784211382</v>
       </c>
       <c r="J18">
-        <v>-0.201931840440825</v>
+        <v>-0.1208058388129064</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -982,31 +982,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-1.22294345461652</v>
+        <v>-0.7416845542314582</v>
       </c>
       <c r="C19">
-        <v>0.9205293619064548</v>
+        <v>0.3990613927453857</v>
       </c>
       <c r="D19">
-        <v>0.2686542055205094</v>
+        <v>0.3117370821223571</v>
       </c>
       <c r="E19">
-        <v>1.477355481920129</v>
+        <v>0.5681304491240021</v>
       </c>
       <c r="F19">
-        <v>0.6392859528092674</v>
+        <v>0.2971418876557057</v>
       </c>
       <c r="G19">
-        <v>0.5633954033461543</v>
+        <v>0.2433385941024377</v>
       </c>
       <c r="H19">
-        <v>-0.1066185579015517</v>
+        <v>0.1248294753345434</v>
       </c>
       <c r="I19">
-        <v>-1.930517975950254</v>
+        <v>-0.3136123062688029</v>
       </c>
       <c r="J19">
-        <v>-0.5583756131449078</v>
+        <v>-0.1740590192626936</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1014,31 +1014,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-1.298579011844578</v>
+        <v>-0.7441823376482074</v>
       </c>
       <c r="C20">
-        <v>1.400570132763511</v>
+        <v>0.4675854254437942</v>
       </c>
       <c r="D20">
-        <v>0.1801010931009617</v>
+        <v>0.06260927285324201</v>
       </c>
       <c r="E20">
-        <v>1.471755989475866</v>
+        <v>0.6118906698539135</v>
       </c>
       <c r="F20">
-        <v>0.5587796134741916</v>
+        <v>0.451246107890897</v>
       </c>
       <c r="G20">
-        <v>0.5034644079247548</v>
+        <v>0.2769455505068686</v>
       </c>
       <c r="H20">
-        <v>-0.03846741265231115</v>
+        <v>0.03491109302318743</v>
       </c>
       <c r="I20">
-        <v>-1.835011355393551</v>
+        <v>-0.2480483861523448</v>
       </c>
       <c r="J20">
-        <v>-0.4565711440913379</v>
+        <v>-0.0727587278880724</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1046,31 +1046,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-2.126859286515428</v>
+        <v>-1.264675677035285</v>
       </c>
       <c r="C21">
-        <v>0.6339607530801733</v>
+        <v>0.5079998887431501</v>
       </c>
       <c r="D21">
-        <v>0.1012092415285863</v>
+        <v>0.2535557037785798</v>
       </c>
       <c r="E21">
-        <v>1.995803569432045</v>
+        <v>0.9850404687407388</v>
       </c>
       <c r="F21">
-        <v>1.15022880911413</v>
+        <v>0.7007075787668551</v>
       </c>
       <c r="G21">
-        <v>0.3088889259522523</v>
+        <v>0.3123986725495076</v>
       </c>
       <c r="H21">
-        <v>-0.0327502599397609</v>
+        <v>0.2919635640354143</v>
       </c>
       <c r="I21">
-        <v>-0.7217097246443395</v>
+        <v>-0.5873583281830541</v>
       </c>
       <c r="J21">
-        <v>-0.2782552926240813</v>
+        <v>0.04119932979188549</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1078,31 +1078,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-1.110495494254537</v>
+        <v>-1.252590874455594</v>
       </c>
       <c r="C22">
-        <v>0.4962276303711379</v>
+        <v>0.3777482038116098</v>
       </c>
       <c r="D22">
-        <v>0.4678797622524639</v>
+        <v>0.01512986181692428</v>
       </c>
       <c r="E22">
-        <v>0.8921706169683021</v>
+        <v>1.00444557427305</v>
       </c>
       <c r="F22">
-        <v>0.5435230445677033</v>
+        <v>0.7232054627077044</v>
       </c>
       <c r="G22">
-        <v>0.6436856643370612</v>
+        <v>0.5196439358906301</v>
       </c>
       <c r="H22">
-        <v>0.02925567035299542</v>
+        <v>0.09521914636282944</v>
       </c>
       <c r="I22">
-        <v>-0.6640544367648641</v>
+        <v>-0.5750657902213931</v>
       </c>
       <c r="J22">
-        <v>-0.230674025547611</v>
+        <v>-0.2106002968952941</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1110,31 +1110,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.5861039265990801</v>
+        <v>-0.02490963398090295</v>
       </c>
       <c r="C23">
-        <v>0.3753284904039198</v>
+        <v>0.008666392064613376</v>
       </c>
       <c r="D23">
-        <v>0.1447923902608782</v>
+        <v>0.01438479597494255</v>
       </c>
       <c r="E23">
-        <v>0.5779981951872916</v>
+        <v>0.01811022158683577</v>
       </c>
       <c r="F23">
-        <v>0.3775550532525165</v>
+        <v>0.01794806845486353</v>
       </c>
       <c r="G23">
-        <v>0.2352418923044228</v>
+        <v>0.01272515192663722</v>
       </c>
       <c r="H23">
-        <v>0.2419181636267138</v>
+        <v>0.006821131047492089</v>
       </c>
       <c r="I23">
-        <v>-0.2109692145195124</v>
+        <v>-0.005821009226767305</v>
       </c>
       <c r="J23">
-        <v>0.007980610610732117</v>
+        <v>3.361692152186726E-05</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1142,31 +1142,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.001915720868227279</v>
+        <v>-0.4248345323385223</v>
       </c>
       <c r="C24">
-        <v>0.001389826790805177</v>
+        <v>0.2225620210913082</v>
       </c>
       <c r="D24">
-        <v>0.0008399485595707328</v>
+        <v>0.06295593616229476</v>
       </c>
       <c r="E24">
-        <v>0.001473939469930815</v>
+        <v>0.4369278332218946</v>
       </c>
       <c r="F24">
-        <v>0.00145245541529195</v>
+        <v>0.2365070679314976</v>
       </c>
       <c r="G24">
-        <v>0.001454647037548446</v>
+        <v>0.2868650310111757</v>
       </c>
       <c r="H24">
-        <v>0.0006567863992851342</v>
+        <v>0.05121691481198157</v>
       </c>
       <c r="I24">
-        <v>-0.0002762468601062034</v>
+        <v>-0.1691681449051787</v>
       </c>
       <c r="J24">
-        <v>-0.0004681740760223822</v>
+        <v>-0.01155284199654231</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1174,31 +1174,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-1.293575132293515</v>
+        <v>-2.284824310415325</v>
       </c>
       <c r="C25">
-        <v>1.006880083127596</v>
+        <v>0.9312211384606494</v>
       </c>
       <c r="D25">
-        <v>-0.1895300667573542</v>
+        <v>-0.2325918061563272</v>
       </c>
       <c r="E25">
-        <v>1.456050507026154</v>
+        <v>1.11704829661972</v>
       </c>
       <c r="F25">
-        <v>0.5405184924289872</v>
+        <v>1.442438291740478</v>
       </c>
       <c r="G25">
-        <v>0.4686947771511283</v>
+        <v>1.033886654742249</v>
       </c>
       <c r="H25">
-        <v>-0.05482546005344989</v>
+        <v>-0.06839297848168158</v>
       </c>
       <c r="I25">
-        <v>-0.6985009134766162</v>
+        <v>-0.5327733493893327</v>
       </c>
       <c r="J25">
-        <v>-0.3112925721442761</v>
+        <v>-0.725773699613147</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1206,31 +1206,31 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-1.21731772204822</v>
+        <v>-0.0205734563430845</v>
       </c>
       <c r="C26">
-        <v>0.3898229189249438</v>
+        <v>0.01020686392223243</v>
       </c>
       <c r="D26">
-        <v>0.4191437241980481</v>
+        <v>0.009611799710860831</v>
       </c>
       <c r="E26">
-        <v>1.184589710836277</v>
+        <v>0.01674683025284556</v>
       </c>
       <c r="F26">
-        <v>0.5795206930062111</v>
+        <v>0.01668743689126717</v>
       </c>
       <c r="G26">
-        <v>0.3801254355425537</v>
+        <v>0.01137208863945236</v>
       </c>
       <c r="H26">
-        <v>-0.1643103065508891</v>
+        <v>0.006684170918940926</v>
       </c>
       <c r="I26">
-        <v>-0.6477137434750927</v>
+        <v>-0.005835163764860029</v>
       </c>
       <c r="J26">
-        <v>-0.5639661346560475</v>
+        <v>-0.003164404077575594</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1238,31 +1238,31 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-1.464449760576825</v>
+        <v>-0.8993049092690228</v>
       </c>
       <c r="C27">
-        <v>0.5996171683080632</v>
+        <v>0.3621646081750162</v>
       </c>
       <c r="D27">
-        <v>0.2249174072968809</v>
+        <v>0.1590034592208686</v>
       </c>
       <c r="E27">
-        <v>1.302878940581069</v>
+        <v>0.4173307308265331</v>
       </c>
       <c r="F27">
-        <v>0.8159604834327433</v>
+        <v>0.4205482774484038</v>
       </c>
       <c r="G27">
-        <v>0.7240738759147277</v>
+        <v>0.4604364993814302</v>
       </c>
       <c r="H27">
-        <v>-0.4645966609429231</v>
+        <v>0.1289280235210137</v>
       </c>
       <c r="I27">
-        <v>-0.5569881057512988</v>
+        <v>-0.2846829687564224</v>
       </c>
       <c r="J27">
-        <v>-0.1890517541073688</v>
+        <v>-0.3115859937536415</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1270,31 +1270,31 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.1676164544244081</v>
+        <v>-1.602538803199725</v>
       </c>
       <c r="C28">
-        <v>0.0863046721668734</v>
+        <v>0.6231137572333074</v>
       </c>
       <c r="D28">
-        <v>0.064330964236805</v>
+        <v>0.2354207598826865</v>
       </c>
       <c r="E28">
-        <v>0.1397043551525664</v>
+        <v>1.270625802218487</v>
       </c>
       <c r="F28">
-        <v>0.1300492650272531</v>
+        <v>0.6639581339283699</v>
       </c>
       <c r="G28">
-        <v>0.1010803724031574</v>
+        <v>0.5264554290548157</v>
       </c>
       <c r="H28">
-        <v>0.02677777842836754</v>
+        <v>-0.05248320243610701</v>
       </c>
       <c r="I28">
-        <v>-0.02844598149288196</v>
+        <v>-0.7631844433582509</v>
       </c>
       <c r="J28">
-        <v>-0.0395473018075658</v>
+        <v>-0.3436286276374127</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1302,31 +1302,31 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-1.162983279787564</v>
+        <v>-0.6090971490217021</v>
       </c>
       <c r="C29">
-        <v>0.9868872888792821</v>
+        <v>0.1903347786420591</v>
       </c>
       <c r="D29">
-        <v>-0.2976355533228901</v>
+        <v>0.2222758488557138</v>
       </c>
       <c r="E29">
-        <v>1.297479274531373</v>
+        <v>0.2975585276959392</v>
       </c>
       <c r="F29">
-        <v>1.037087719976958</v>
+        <v>0.3621637692492218</v>
       </c>
       <c r="G29">
-        <v>0.2509499628750123</v>
+        <v>0.3624469908929663</v>
       </c>
       <c r="H29">
-        <v>0.5982624770346104</v>
+        <v>0.06541751338046267</v>
       </c>
       <c r="I29">
-        <v>-1.657801988979462</v>
+        <v>-0.1766410415757968</v>
       </c>
       <c r="J29">
-        <v>0.07666589996937069</v>
+        <v>-0.1420730491225743</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1334,31 +1334,31 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.7170269421721441</v>
+        <v>-0.002365518752853453</v>
       </c>
       <c r="C30">
-        <v>0.3749242871792324</v>
+        <v>0.001192196626123987</v>
       </c>
       <c r="D30">
-        <v>0.3072488467382609</v>
+        <v>0.0009967329404617965</v>
       </c>
       <c r="E30">
-        <v>0.5878430451628209</v>
+        <v>0.001624348921462176</v>
       </c>
       <c r="F30">
-        <v>0.3585335712884643</v>
+        <v>0.00158012000545928</v>
       </c>
       <c r="G30">
-        <v>0.3061430537394429</v>
+        <v>0.001555077956827273</v>
       </c>
       <c r="H30">
-        <v>0.07519495990159718</v>
+        <v>0.0008178408803422476</v>
       </c>
       <c r="I30">
-        <v>-0.2387927871273943</v>
+        <v>-0.0005899264588573385</v>
       </c>
       <c r="J30">
-        <v>-0.14266695777887</v>
+        <v>-0.0007506189844613085</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1366,31 +1366,31 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-1.610899565514975</v>
+        <v>-1.371784540235105</v>
       </c>
       <c r="C31">
-        <v>0.7019545109015306</v>
+        <v>0.8103820964202022</v>
       </c>
       <c r="D31">
-        <v>0.1289038868192073</v>
+        <v>0.5209717041698977</v>
       </c>
       <c r="E31">
-        <v>1.823353086670815</v>
+        <v>0.6997219241599187</v>
       </c>
       <c r="F31">
-        <v>0.5334918198694577</v>
+        <v>0.5167262697472464</v>
       </c>
       <c r="G31">
-        <v>0.2527190797354094</v>
+        <v>0.690817050151849</v>
       </c>
       <c r="H31">
-        <v>-0.07461634381531644</v>
+        <v>0.05633610224810525</v>
       </c>
       <c r="I31">
-        <v>-0.4106581072260863</v>
+        <v>-0.6535718218296341</v>
       </c>
       <c r="J31">
-        <v>-0.08113995935806745</v>
+        <v>-0.373945586204191</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1398,31 +1398,31 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.02387037680911492</v>
+        <v>-0.02740382023920234</v>
       </c>
       <c r="C32">
-        <v>0.007500440819381151</v>
+        <v>0.008591156991942487</v>
       </c>
       <c r="D32">
-        <v>0.007443312047739428</v>
+        <v>0.01078280339133304</v>
       </c>
       <c r="E32">
-        <v>0.02035866920974507</v>
+        <v>0.02131474993268875</v>
       </c>
       <c r="F32">
-        <v>0.01473639599766214</v>
+        <v>0.01587792825622904</v>
       </c>
       <c r="G32">
-        <v>0.01439971412962607</v>
+        <v>0.01589395602360272</v>
       </c>
       <c r="H32">
-        <v>0.01175400544681712</v>
+        <v>0.008645646124893342</v>
       </c>
       <c r="I32">
-        <v>-0.002757671066678479</v>
+        <v>-0.005815980899256189</v>
       </c>
       <c r="J32">
-        <v>-0.008596055200069402</v>
+        <v>-0.006066964502990813</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1430,31 +1430,31 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.6952644768038964</v>
+        <v>-2.470053152820976</v>
       </c>
       <c r="C33">
-        <v>0.3105226873896329</v>
+        <v>0.497519416074818</v>
       </c>
       <c r="D33">
-        <v>0.1817581386714631</v>
+        <v>0.2032777723522582</v>
       </c>
       <c r="E33">
-        <v>0.7001640309535416</v>
+        <v>2.03564609462344</v>
       </c>
       <c r="F33">
-        <v>0.4822955800292836</v>
+        <v>0.9784589733151305</v>
       </c>
       <c r="G33">
-        <v>0.1694524825177746</v>
+        <v>0.2540137153449791</v>
       </c>
       <c r="H33">
-        <v>0.2043109436371773</v>
+        <v>0.3790933033874896</v>
       </c>
       <c r="I33">
-        <v>-0.2267997492483985</v>
+        <v>-0.721361339184842</v>
       </c>
       <c r="J33">
-        <v>-0.05442496153483505</v>
+        <v>-0.5957875004222518</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1462,31 +1462,31 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-1.66669092469937</v>
+        <v>-2.0702897093032</v>
       </c>
       <c r="C34">
-        <v>0.02029455531953419</v>
+        <v>0.4973925192870902</v>
       </c>
       <c r="D34">
-        <v>0.5584165237018069</v>
+        <v>0.3987119107100364</v>
       </c>
       <c r="E34">
-        <v>1.628079916616611</v>
+        <v>0.6405909242155229</v>
       </c>
       <c r="F34">
-        <v>0.5890039682896018</v>
+        <v>1.094352252884686</v>
       </c>
       <c r="G34">
-        <v>0.4528262200747319</v>
+        <v>0.9817566940845858</v>
       </c>
       <c r="H34">
-        <v>0.1755340144366054</v>
+        <v>0.27701716409129</v>
       </c>
       <c r="I34">
-        <v>-1.090532791343422</v>
+        <v>-0.8625639226411481</v>
       </c>
       <c r="J34">
-        <v>-0.2798996901004226</v>
+        <v>-0.4121561399634985</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1494,31 +1494,31 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.02477052904723569</v>
+        <v>-0.717743761459246</v>
       </c>
       <c r="C35">
-        <v>0.009024359130534187</v>
+        <v>0.1681488620944396</v>
       </c>
       <c r="D35">
-        <v>0.01005467520062237</v>
+        <v>0.3034965105855433</v>
       </c>
       <c r="E35">
-        <v>0.01841101993669494</v>
+        <v>0.6725730458823395</v>
       </c>
       <c r="F35">
-        <v>0.01891694121744825</v>
+        <v>0.3798436536822921</v>
       </c>
       <c r="G35">
-        <v>0.01638294204911637</v>
+        <v>0.2804438852824613</v>
       </c>
       <c r="H35">
-        <v>0.006267202479826317</v>
+        <v>-0.1029672292236924</v>
       </c>
       <c r="I35">
-        <v>-0.002790384516704631</v>
+        <v>-0.2556313506556458</v>
       </c>
       <c r="J35">
-        <v>-0.003737584560399082</v>
+        <v>-0.04364575501004436</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1526,31 +1526,31 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-1.336186537269302</v>
+        <v>-4.766198118534785</v>
       </c>
       <c r="C36">
-        <v>0.1560223865218825</v>
+        <v>-0.02070890979161782</v>
       </c>
       <c r="D36">
-        <v>0.07918877825023728</v>
+        <v>0.2812082270621174</v>
       </c>
       <c r="E36">
-        <v>1.653393478310035</v>
+        <v>2.294865518169236</v>
       </c>
       <c r="F36">
-        <v>0.7457759157898943</v>
+        <v>1.760422291213271</v>
       </c>
       <c r="G36">
-        <v>0.3725392867560332</v>
+        <v>1.235088793269098</v>
       </c>
       <c r="H36">
-        <v>0.500611122463984</v>
+        <v>0.8605084099375553</v>
       </c>
       <c r="I36">
-        <v>-1.064120101195163</v>
+        <v>-0.6953679926589744</v>
       </c>
       <c r="J36">
-        <v>-0.06533065981823077</v>
+        <v>-0.9990124834030918</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1558,31 +1558,31 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-1.236622285964855</v>
+        <v>-1.864470728339918</v>
       </c>
       <c r="C37">
-        <v>0.5252083679049021</v>
+        <v>0.5323432294401437</v>
       </c>
       <c r="D37">
-        <v>0.3869960546927864</v>
+        <v>-0.1926764382098421</v>
       </c>
       <c r="E37">
-        <v>1.363427954866147</v>
+        <v>1.730303273805521</v>
       </c>
       <c r="F37">
-        <v>0.6015806446556433</v>
+        <v>0.6118952937968662</v>
       </c>
       <c r="G37">
-        <v>0.3717706133553932</v>
+        <v>0.001292994891817764</v>
       </c>
       <c r="H37">
-        <v>-0.03673947804651458</v>
+        <v>0.7194213914383371</v>
       </c>
       <c r="I37">
-        <v>-0.8224365267194498</v>
+        <v>-0.604719305351418</v>
       </c>
       <c r="J37">
-        <v>-0.2121244683954309</v>
+        <v>-0.7588206896463008</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1590,31 +1590,31 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-1.090353319976803</v>
+        <v>-0.5645314636994528</v>
       </c>
       <c r="C38">
-        <v>0.7150894994276884</v>
+        <v>0.2550944823170455</v>
       </c>
       <c r="D38">
-        <v>0.3972243059266632</v>
+        <v>0.171925395769957</v>
       </c>
       <c r="E38">
-        <v>1.683953729305891</v>
+        <v>0.4249188709860295</v>
       </c>
       <c r="F38">
-        <v>0.4920041514213695</v>
+        <v>0.2850339333441546</v>
       </c>
       <c r="G38">
-        <v>0.3676914939516806</v>
+        <v>0.2894318041533202</v>
       </c>
       <c r="H38">
-        <v>-0.5597762750990103</v>
+        <v>0.1608005111298939</v>
       </c>
       <c r="I38">
-        <v>-1.143412194329099</v>
+        <v>-0.1978138495851724</v>
       </c>
       <c r="J38">
-        <v>-0.06451418420724198</v>
+        <v>-0.02183297777598283</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1622,31 +1622,31 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.02452204793188899</v>
+        <v>-0.7167438507624347</v>
       </c>
       <c r="C39">
-        <v>0.008767229494030625</v>
+        <v>0.4618094748725377</v>
       </c>
       <c r="D39">
-        <v>0.014614246023652</v>
+        <v>0.2329749659643584</v>
       </c>
       <c r="E39">
-        <v>0.01755152046774786</v>
+        <v>0.537177190099251</v>
       </c>
       <c r="F39">
-        <v>0.01492149735870967</v>
+        <v>0.3001411509024113</v>
       </c>
       <c r="G39">
-        <v>0.01619009563202354</v>
+        <v>0.2790125337391314</v>
       </c>
       <c r="H39">
-        <v>0.007878440634080545</v>
+        <v>0.1106442481779283</v>
       </c>
       <c r="I39">
-        <v>-0.002748413678686354</v>
+        <v>-0.3118926363369097</v>
       </c>
       <c r="J39">
-        <v>-0.006445883963803675</v>
+        <v>-0.1150246331969103</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1654,31 +1654,31 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-1.32402435950949</v>
+        <v>-0.02517880279661051</v>
       </c>
       <c r="C40">
-        <v>1.462137921440769</v>
+        <v>0.008413933765073111</v>
       </c>
       <c r="D40">
-        <v>0.0654229342311092</v>
+        <v>0.01095984498157237</v>
       </c>
       <c r="E40">
-        <v>1.602494187471011</v>
+        <v>0.01615960648875999</v>
       </c>
       <c r="F40">
-        <v>0.4864238937718364</v>
+        <v>0.01610226988313738</v>
       </c>
       <c r="G40">
-        <v>0.3663567180631289</v>
+        <v>0.01741897927667894</v>
       </c>
       <c r="H40">
-        <v>-0.01943135657420801</v>
+        <v>0.009265512951410744</v>
       </c>
       <c r="I40">
-        <v>-2.067001098739019</v>
+        <v>-0.005866686600098355</v>
       </c>
       <c r="J40">
-        <v>-0.9405549209576913</v>
+        <v>-0.007270259477312435</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1686,31 +1686,31 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.6821743921725075</v>
+        <v>-1.670647876035267</v>
       </c>
       <c r="C41">
-        <v>0.1548078984649864</v>
+        <v>0.5157798679089349</v>
       </c>
       <c r="D41">
-        <v>0.1797179152130445</v>
+        <v>0.4206555306776986</v>
       </c>
       <c r="E41">
-        <v>0.8352783417707008</v>
+        <v>1.363301641593031</v>
       </c>
       <c r="F41">
-        <v>0.2469555982426041</v>
+        <v>0.4611474059733665</v>
       </c>
       <c r="G41">
-        <v>0.2933825928492133</v>
+        <v>0.2973698390733501</v>
       </c>
       <c r="H41">
-        <v>0.1579622976498711</v>
+        <v>0.2262611743355356</v>
       </c>
       <c r="I41">
-        <v>-0.2214841672628353</v>
+        <v>-0.5809899073205083</v>
       </c>
       <c r="J41">
-        <v>-0.06532882758629312</v>
+        <v>-0.2989013015334326</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1718,31 +1718,31 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-1.223193498561106</v>
+        <v>-0.5729907562981432</v>
       </c>
       <c r="C42">
-        <v>0.8948646058748297</v>
+        <v>0.1414302114286465</v>
       </c>
       <c r="D42">
-        <v>-0.2353846224352235</v>
+        <v>0.2251481975389093</v>
       </c>
       <c r="E42">
-        <v>1.239443837315057</v>
+        <v>0.3006054860102402</v>
       </c>
       <c r="F42">
-        <v>0.761592022996088</v>
+        <v>0.3475378935563891</v>
       </c>
       <c r="G42">
-        <v>0.3373800683187056</v>
+        <v>0.3409448741070089</v>
       </c>
       <c r="H42">
-        <v>-0.07193779813429763</v>
+        <v>0.09539651220410844</v>
       </c>
       <c r="I42">
-        <v>-0.4343947719355044</v>
+        <v>-0.1944762923770852</v>
       </c>
       <c r="J42">
-        <v>0.1358022334346307</v>
+        <v>-0.09989181158018624</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1750,31 +1750,31 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.4703163744776556</v>
+        <v>-1.783754710648309</v>
       </c>
       <c r="C43">
-        <v>-0.0483869395367303</v>
+        <v>0.1978959727149482</v>
       </c>
       <c r="D43">
-        <v>0.1578699462882802</v>
+        <v>0.3446301027873235</v>
       </c>
       <c r="E43">
-        <v>0.5112145667769179</v>
+        <v>1.446439071969862</v>
       </c>
       <c r="F43">
-        <v>0.3004614679495026</v>
+        <v>0.8374949391203163</v>
       </c>
       <c r="G43">
-        <v>0.2565198879692931</v>
+        <v>0.5948889035323977</v>
       </c>
       <c r="H43">
-        <v>0.09353171624111771</v>
+        <v>-0.3282798079468083</v>
       </c>
       <c r="I43">
-        <v>-0.1186307374074225</v>
+        <v>-0.6265553844507695</v>
       </c>
       <c r="J43">
-        <v>-0.07883905882387685</v>
+        <v>-0.453717176640099</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1782,31 +1782,31 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-1.325557495775953</v>
+        <v>-0.02947031840743602</v>
       </c>
       <c r="C44">
-        <v>0.6752924558882797</v>
+        <v>0.01122418814264875</v>
       </c>
       <c r="D44">
-        <v>0.03352148737227104</v>
+        <v>0.01251459729816433</v>
       </c>
       <c r="E44">
-        <v>1.25049109907945</v>
+        <v>0.01683736579110644</v>
       </c>
       <c r="F44">
-        <v>0.6195243320966266</v>
+        <v>0.01830583156452826</v>
       </c>
       <c r="G44">
-        <v>0.472930896289594</v>
+        <v>0.01955445520242323</v>
       </c>
       <c r="H44">
-        <v>-0.3186815887880661</v>
+        <v>0.006990243555641502</v>
       </c>
       <c r="I44">
-        <v>-0.3951078658511342</v>
+        <v>-0.005877307713715076</v>
       </c>
       <c r="J44">
-        <v>-0.4316995882671169</v>
+        <v>-0.004393825367955455</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1814,31 +1814,31 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.9568006521938871</v>
+        <v>-2.186098903330067</v>
       </c>
       <c r="C45">
-        <v>0.4468164631477085</v>
+        <v>1.08995668956892</v>
       </c>
       <c r="D45">
-        <v>0.1224034396157198</v>
+        <v>0.4697797859053867</v>
       </c>
       <c r="E45">
-        <v>0.703598381311287</v>
+        <v>1.694178565733365</v>
       </c>
       <c r="F45">
-        <v>0.7464471882171095</v>
+        <v>0.827753601164988</v>
       </c>
       <c r="G45">
-        <v>0.6394467441255905</v>
+        <v>0.5674752890779468</v>
       </c>
       <c r="H45">
-        <v>0.1714217573917656</v>
+        <v>-0.5469079583524867</v>
       </c>
       <c r="I45">
-        <v>-0.6539764173537896</v>
+        <v>-0.7037408451810588</v>
       </c>
       <c r="J45">
-        <v>-0.07932279681386585</v>
+        <v>-0.4836471181314777</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1846,31 +1846,31 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-3.820866084561588</v>
+        <v>-0.7979237761952263</v>
       </c>
       <c r="C46">
-        <v>-0.03007319059499584</v>
+        <v>0.1652392731697053</v>
       </c>
       <c r="D46">
-        <v>-0.1012105387607304</v>
+        <v>0.2911245116604213</v>
       </c>
       <c r="E46">
-        <v>3.352553613362171</v>
+        <v>0.4494224940538929</v>
       </c>
       <c r="F46">
-        <v>1.52853266909866</v>
+        <v>0.4785368093010847</v>
       </c>
       <c r="G46">
-        <v>0.5298370008021648</v>
+        <v>0.4973515172220402</v>
       </c>
       <c r="H46">
-        <v>0.905270658979075</v>
+        <v>0.0525477916800618</v>
       </c>
       <c r="I46">
-        <v>-1.546065267409608</v>
+        <v>-0.2849884663736677</v>
       </c>
       <c r="J46">
-        <v>-1.138244585518799</v>
+        <v>-0.1025549886228352</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -1878,31 +1878,31 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-0.841004504510015</v>
+        <v>-1.030306438009766</v>
       </c>
       <c r="C47">
-        <v>0.26355905880495</v>
+        <v>0.1192807128505896</v>
       </c>
       <c r="D47">
-        <v>0.2977432443690279</v>
+        <v>0.3036324190596268</v>
       </c>
       <c r="E47">
-        <v>0.7085749627881531</v>
+        <v>0.6552703850667395</v>
       </c>
       <c r="F47">
-        <v>0.3408791332077274</v>
+        <v>0.4327802531025441</v>
       </c>
       <c r="G47">
-        <v>0.3066241955954772</v>
+        <v>0.4122599851856978</v>
       </c>
       <c r="H47">
-        <v>0.2170715770285527</v>
+        <v>0.1380895578005812</v>
       </c>
       <c r="I47">
-        <v>-0.2126294103675332</v>
+        <v>-0.310555792871528</v>
       </c>
       <c r="J47">
-        <v>-0.2127687278821973</v>
+        <v>-0.2754174104302247</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1910,31 +1910,31 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.02105952081565934</v>
+        <v>-1.331602755479093</v>
       </c>
       <c r="C48">
-        <v>0.01575618615109386</v>
+        <v>0.4199651778218291</v>
       </c>
       <c r="D48">
-        <v>0.009646203357800658</v>
+        <v>0.2514293311434617</v>
       </c>
       <c r="E48">
-        <v>0.01365162791977532</v>
+        <v>0.7289366519718212</v>
       </c>
       <c r="F48">
-        <v>0.01262574345446973</v>
+        <v>0.6705857726214873</v>
       </c>
       <c r="G48">
-        <v>0.01409560885759427</v>
+        <v>0.690554787483187</v>
       </c>
       <c r="H48">
-        <v>0.009436088735648709</v>
+        <v>0.1246581074636372</v>
       </c>
       <c r="I48">
-        <v>-0.00280596008161931</v>
+        <v>-0.5056271411528726</v>
       </c>
       <c r="J48">
-        <v>-0.007082752840495758</v>
+        <v>-0.38368249577106</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -1942,31 +1942,31 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.02449824338049089</v>
+        <v>-2.035445386897583</v>
       </c>
       <c r="C49">
-        <v>0.008922661605091838</v>
+        <v>1.302217518698815</v>
       </c>
       <c r="D49">
-        <v>0.01423664310375579</v>
+        <v>0.03202997734512671</v>
       </c>
       <c r="E49">
-        <v>0.01566390103465086</v>
+        <v>1.380920680893474</v>
       </c>
       <c r="F49">
-        <v>0.01724154116547731</v>
+        <v>0.7822982228083469</v>
       </c>
       <c r="G49">
-        <v>0.0167875446826276</v>
+        <v>0.5132968715281211</v>
       </c>
       <c r="H49">
-        <v>0.008776130753350323</v>
+        <v>0.1605291505175259</v>
       </c>
       <c r="I49">
-        <v>-0.002775092552818166</v>
+        <v>-0.8409329740372332</v>
       </c>
       <c r="J49">
-        <v>-0.001887267426426909</v>
+        <v>-0.2179237151834586</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -1974,31 +1974,31 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-1.305596195806572</v>
+        <v>-0.02584503842173371</v>
       </c>
       <c r="C50">
-        <v>0.5541099361818735</v>
+        <v>0.01025118990869443</v>
       </c>
       <c r="D50">
-        <v>0.2830471272805723</v>
+        <v>0.01016919575633284</v>
       </c>
       <c r="E50">
-        <v>0.5965760319938648</v>
+        <v>0.01431992135002962</v>
       </c>
       <c r="F50">
-        <v>0.8080474538975813</v>
+        <v>0.01693887759026139</v>
       </c>
       <c r="G50">
-        <v>0.8231838945739443</v>
+        <v>0.01951591818287665</v>
       </c>
       <c r="H50">
-        <v>0.209907414478553</v>
+        <v>0.007825128380614426</v>
       </c>
       <c r="I50">
-        <v>-0.6680044219690469</v>
+        <v>-0.005810728495965867</v>
       </c>
       <c r="J50">
-        <v>-0.3328828407667374</v>
+        <v>-0.006556905443440883</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2006,31 +2006,31 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-1.595981203900597</v>
+        <v>-0.4965655828505958</v>
       </c>
       <c r="C51">
-        <v>0.1579352198450129</v>
+        <v>0.2570044752406037</v>
       </c>
       <c r="D51">
-        <v>1.0528735936707</v>
+        <v>0.05427776726080624</v>
       </c>
       <c r="E51">
-        <v>0.3503872732390383</v>
+        <v>0.4689794273134993</v>
       </c>
       <c r="F51">
-        <v>1.295547137369326</v>
+        <v>0.2558675561822885</v>
       </c>
       <c r="G51">
-        <v>1.032957589199769</v>
+        <v>0.2279715720954007</v>
       </c>
       <c r="H51">
-        <v>0.4165196634018818</v>
+        <v>0.06965687345140721</v>
       </c>
       <c r="I51">
-        <v>-2.202670654179464</v>
+        <v>-0.1855324227906073</v>
       </c>
       <c r="J51">
-        <v>-0.3067540630671529</v>
+        <v>-0.1194237547897314</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2038,31 +2038,31 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-1.407157129226642</v>
+        <v>-0.7957786986513712</v>
       </c>
       <c r="C52">
-        <v>0.5474679340989597</v>
+        <v>0.2195091013779352</v>
       </c>
       <c r="D52">
-        <v>0.1880873933591518</v>
+        <v>0.0989821500239654</v>
       </c>
       <c r="E52">
-        <v>1.005286801767343</v>
+        <v>0.6420999365158535</v>
       </c>
       <c r="F52">
-        <v>0.9229982195993788</v>
+        <v>0.5153368024118941</v>
       </c>
       <c r="G52">
-        <v>0.4387550458162071</v>
+        <v>0.352188153821164</v>
       </c>
       <c r="H52">
-        <v>0.2422822643887801</v>
+        <v>-0.001814960032481457</v>
       </c>
       <c r="I52">
-        <v>-0.5594350353611048</v>
+        <v>-0.2296724210097777</v>
       </c>
       <c r="J52">
-        <v>-0.3367749158231739</v>
+        <v>-0.2020060436631766</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2070,31 +2070,31 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-2.076708185037436</v>
+        <v>-0.7952374863792993</v>
       </c>
       <c r="C53">
-        <v>0.1017040011968567</v>
+        <v>0.237616914556591</v>
       </c>
       <c r="D53">
-        <v>0.1535066579743404</v>
+        <v>0.2809985367157929</v>
       </c>
       <c r="E53">
-        <v>1.987233660646981</v>
+        <v>0.3934403187584357</v>
       </c>
       <c r="F53">
-        <v>0.8957789698916201</v>
+        <v>0.5034620072892537</v>
       </c>
       <c r="G53">
-        <v>0.5786941542683063</v>
+        <v>0.4794779935736188</v>
       </c>
       <c r="H53">
-        <v>0.09531352293538344</v>
+        <v>-0.005070983197455295</v>
       </c>
       <c r="I53">
-        <v>-1.059076413872861</v>
+        <v>-0.2449757323225511</v>
       </c>
       <c r="J53">
-        <v>-0.6063808405611963</v>
+        <v>-0.06731369309195005</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2102,31 +2102,31 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-2.31151772342876</v>
+        <v>-1.447456658473845</v>
       </c>
       <c r="C54">
-        <v>1.539558886358851</v>
+        <v>0.5831034314102863</v>
       </c>
       <c r="D54">
-        <v>-0.03858529259256793</v>
+        <v>0.06679885153301672</v>
       </c>
       <c r="E54">
-        <v>2.237340640526146</v>
+        <v>1.09709855343927</v>
       </c>
       <c r="F54">
-        <v>0.9257562323295244</v>
+        <v>0.6828648826765422</v>
       </c>
       <c r="G54">
-        <v>0.7407453273773463</v>
+        <v>0.5216404587682624</v>
       </c>
       <c r="H54">
-        <v>-0.2627360427510929</v>
+        <v>0.1110178415511373</v>
       </c>
       <c r="I54">
-        <v>-1.808226752937676</v>
+        <v>-0.6022707636090437</v>
       </c>
       <c r="J54">
-        <v>-0.921597753368085</v>
+        <v>-0.4070021599263774</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2134,31 +2134,31 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-1.184261931743177</v>
+        <v>-1.434311235233933</v>
       </c>
       <c r="C55">
-        <v>1.13024633424809</v>
+        <v>0.2970050440752465</v>
       </c>
       <c r="D55">
-        <v>0.464783172143474</v>
+        <v>0.4539411238782789</v>
       </c>
       <c r="E55">
-        <v>1.182157546739815</v>
+        <v>1.00204275807124</v>
       </c>
       <c r="F55">
-        <v>0.437258749268812</v>
+        <v>0.5494086219456489</v>
       </c>
       <c r="G55">
-        <v>0.4082321134768954</v>
+        <v>0.6285971000197358</v>
       </c>
       <c r="H55">
-        <v>-0.1077763689635271</v>
+        <v>0.1150753133619626</v>
       </c>
       <c r="I55">
-        <v>-1.124684929569156</v>
+        <v>-0.6089965621693374</v>
       </c>
       <c r="J55">
-        <v>-0.6435746104988422</v>
+        <v>-0.1643312975780039</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2166,31 +2166,31 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-0.002168896292934578</v>
+        <v>-0.002257465152156805</v>
       </c>
       <c r="C56">
-        <v>0.001196817659161582</v>
+        <v>0.0009717791649729557</v>
       </c>
       <c r="D56">
-        <v>0.0009467215232216769</v>
+        <v>0.001198304764565716</v>
       </c>
       <c r="E56">
-        <v>0.001973884898024948</v>
+        <v>0.001501442403707725</v>
       </c>
       <c r="F56">
-        <v>0.00149843605048289</v>
+        <v>0.001649750453423861</v>
       </c>
       <c r="G56">
-        <v>0.001346797079113401</v>
+        <v>0.001723646057161121</v>
       </c>
       <c r="H56">
-        <v>0.000711109394467203</v>
+        <v>0.0004142551085023796</v>
       </c>
       <c r="I56">
-        <v>-0.0002763259370556961</v>
+        <v>-0.000590274177323675</v>
       </c>
       <c r="J56">
-        <v>-0.0003528642897138367</v>
+        <v>-0.0004222072607542466</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2198,31 +2198,31 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-0.6965195693925478</v>
+        <v>-1.310657149504403</v>
       </c>
       <c r="C57">
-        <v>0.3375761769852564</v>
+        <v>0.4344913760946106</v>
       </c>
       <c r="D57">
-        <v>0.1575995926718171</v>
+        <v>0.4579753382649885</v>
       </c>
       <c r="E57">
-        <v>0.6002579220201893</v>
+        <v>0.8920264270787958</v>
       </c>
       <c r="F57">
-        <v>0.4435810322637672</v>
+        <v>0.7808641641408499</v>
       </c>
       <c r="G57">
-        <v>0.3095981618089014</v>
+        <v>0.5798658239943648</v>
       </c>
       <c r="H57">
-        <v>0.1672552518612902</v>
+        <v>-0.2459408811168387</v>
       </c>
       <c r="I57">
-        <v>-0.260840565210829</v>
+        <v>-0.563557629114986</v>
       </c>
       <c r="J57">
-        <v>-0.2083944351405855</v>
+        <v>-0.07899865399503622</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2230,31 +2230,31 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-0.5279844860153228</v>
+        <v>-0.5971847862484917</v>
       </c>
       <c r="C58">
-        <v>0.1664141359509399</v>
+        <v>0.1911422188725759</v>
       </c>
       <c r="D58">
-        <v>0.2440644325257466</v>
+        <v>0.1797525657729792</v>
       </c>
       <c r="E58">
-        <v>0.4688220389279796</v>
+        <v>0.4212206186221223</v>
       </c>
       <c r="F58">
-        <v>0.2402233093653829</v>
+        <v>0.3612002933905939</v>
       </c>
       <c r="G58">
-        <v>0.2143865260160946</v>
+        <v>0.2619518676136103</v>
       </c>
       <c r="H58">
-        <v>0.1847296647952705</v>
+        <v>0.1455516145552458</v>
       </c>
       <c r="I58">
-        <v>-0.1236501594375985</v>
+        <v>-0.220315413933005</v>
       </c>
       <c r="J58">
-        <v>-0.1211693382960074</v>
+        <v>-0.06643352879847027</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2262,31 +2262,31 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-0.9675465656762892</v>
+        <v>-2.246573822717812</v>
       </c>
       <c r="C59">
-        <v>0.709722091302619</v>
+        <v>0.5290593966639094</v>
       </c>
       <c r="D59">
-        <v>0.2540210225948743</v>
+        <v>-0.008779958259761295</v>
       </c>
       <c r="E59">
-        <v>0.7620305576025388</v>
+        <v>1.776084878437036</v>
       </c>
       <c r="F59">
-        <v>0.5251057488509495</v>
+        <v>1.015743863719838</v>
       </c>
       <c r="G59">
-        <v>0.5873457477863755</v>
+        <v>0.1309718773496225</v>
       </c>
       <c r="H59">
-        <v>0.0356797470458733</v>
+        <v>0.6848882922505918</v>
       </c>
       <c r="I59">
-        <v>-0.7229912676923412</v>
+        <v>-0.4844955309111785</v>
       </c>
       <c r="J59">
-        <v>-0.2294033108660979</v>
+        <v>-0.2844921639136633</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2294,31 +2294,31 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-1.843276379339462</v>
+        <v>-0.67723106581185</v>
       </c>
       <c r="C60">
-        <v>0.772975748114379</v>
+        <v>0.2487932064828305</v>
       </c>
       <c r="D60">
-        <v>0.3693487728332483</v>
+        <v>0.2374006267869494</v>
       </c>
       <c r="E60">
-        <v>1.058387889074237</v>
+        <v>0.5003958197590236</v>
       </c>
       <c r="F60">
-        <v>0.8235217405682921</v>
+        <v>0.2611607141440489</v>
       </c>
       <c r="G60">
-        <v>0.9536980550918855</v>
+        <v>0.2601465200601029</v>
       </c>
       <c r="H60">
-        <v>0.08401008160717995</v>
+        <v>0.1084102481935765</v>
       </c>
       <c r="I60">
-        <v>-1.358647197191801</v>
+        <v>-0.1654607168519303</v>
       </c>
       <c r="J60">
-        <v>-0.5838709037241303</v>
+        <v>-0.1436259251518162</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2326,31 +2326,31 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-1.675139296446508</v>
+        <v>-0.8257439834446755</v>
       </c>
       <c r="C61">
-        <v>0.4044853471689795</v>
+        <v>0.397507757080135</v>
       </c>
       <c r="D61">
-        <v>0.1701694909528484</v>
+        <v>0.2049414616021134</v>
       </c>
       <c r="E61">
-        <v>0.958307282638049</v>
+        <v>0.5121903277959619</v>
       </c>
       <c r="F61">
-        <v>1.002395087559736</v>
+        <v>0.4146518687450256</v>
       </c>
       <c r="G61">
-        <v>1.031416199723265</v>
+        <v>0.2799673037933227</v>
       </c>
       <c r="H61">
-        <v>-0.1043920922396181</v>
+        <v>0.2850360693197585</v>
       </c>
       <c r="I61">
-        <v>-0.6396403889827434</v>
+        <v>-0.2872190606380625</v>
       </c>
       <c r="J61">
-        <v>-0.2867239652220525</v>
+        <v>-0.05210229040885352</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2358,31 +2358,31 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-0.02358830881653974</v>
+        <v>-1.201785543418415</v>
       </c>
       <c r="C62">
-        <v>0.01295526624193345</v>
+        <v>0.6669883362577538</v>
       </c>
       <c r="D62">
-        <v>0.00860237970697662</v>
+        <v>0.1889592641930843</v>
       </c>
       <c r="E62">
-        <v>0.01677050765894135</v>
+        <v>1.094112765110612</v>
       </c>
       <c r="F62">
-        <v>0.0168172192664864</v>
+        <v>0.4957307511348637</v>
       </c>
       <c r="G62">
-        <v>0.01697553243211744</v>
+        <v>0.2996476294552146</v>
       </c>
       <c r="H62">
-        <v>0.005625539403998943</v>
+        <v>0.03736524521811042</v>
       </c>
       <c r="I62">
-        <v>-0.002763999714785007</v>
+        <v>-0.3761662258784947</v>
       </c>
       <c r="J62">
-        <v>-0.004738201685050367</v>
+        <v>-0.000225279514753754</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2390,31 +2390,31 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-1.091759936534935</v>
+        <v>-1.322090609905882</v>
       </c>
       <c r="C63">
-        <v>0.7772733960906368</v>
+        <v>0.7400677513270408</v>
       </c>
       <c r="D63">
-        <v>0.2911465944956757</v>
+        <v>0.06282663446294275</v>
       </c>
       <c r="E63">
-        <v>0.8754435101607552</v>
+        <v>1.114038158237828</v>
       </c>
       <c r="F63">
-        <v>0.5494445829401973</v>
+        <v>0.4908013016311787</v>
       </c>
       <c r="G63">
-        <v>0.5536704623124697</v>
+        <v>0.3788225978433807</v>
       </c>
       <c r="H63">
-        <v>-0.1519118214445254</v>
+        <v>0.1412184734501143</v>
       </c>
       <c r="I63">
-        <v>-0.5609852384272795</v>
+        <v>-0.5299295750372491</v>
       </c>
       <c r="J63">
-        <v>-0.4143244919191782</v>
+        <v>-0.3343945033293585</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2422,31 +2422,31 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-0.4651941864822356</v>
+        <v>-0.278964021506111</v>
       </c>
       <c r="C64">
-        <v>0.302456731678888</v>
+        <v>0.07084530322167402</v>
       </c>
       <c r="D64">
-        <v>0.2405170014795778</v>
+        <v>0.08087297434767227</v>
       </c>
       <c r="E64">
-        <v>0.3677289952223989</v>
+        <v>0.1523973432982927</v>
       </c>
       <c r="F64">
-        <v>0.2210374314508017</v>
+        <v>0.1453410562611426</v>
       </c>
       <c r="G64">
-        <v>0.2059162172966231</v>
+        <v>0.1740093618109276</v>
       </c>
       <c r="H64">
-        <v>0.1705267802776362</v>
+        <v>0.03833779590108719</v>
       </c>
       <c r="I64">
-        <v>-0.1324576398867765</v>
+        <v>-0.05651480076124511</v>
       </c>
       <c r="J64">
-        <v>-0.05995768821072236</v>
+        <v>-0.05975721549656213</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -2454,31 +2454,31 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-1.634215804244629</v>
+        <v>-0.5279223328357306</v>
       </c>
       <c r="C65">
-        <v>0.2237513233704243</v>
+        <v>0.2300910214834209</v>
       </c>
       <c r="D65">
-        <v>0.05868304390413139</v>
+        <v>0.1374652289541042</v>
       </c>
       <c r="E65">
-        <v>1.798087530323069</v>
+        <v>0.4109392800396029</v>
       </c>
       <c r="F65">
-        <v>0.554691392168514</v>
+        <v>0.2674476732577952</v>
       </c>
       <c r="G65">
-        <v>0.0448984374760079</v>
+        <v>0.288536506669388</v>
       </c>
       <c r="H65">
-        <v>0.9906640464183381</v>
+        <v>0.1159635757355944</v>
       </c>
       <c r="I65">
-        <v>-0.9686576387222678</v>
+        <v>-0.2083957104377989</v>
       </c>
       <c r="J65">
-        <v>-0.3530827392253753</v>
+        <v>-0.141296041769089</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2486,31 +2486,31 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-1.327025705275818</v>
+        <v>-1.351540762229925</v>
       </c>
       <c r="C66">
-        <v>0.9134745269436776</v>
+        <v>0.6165170472971283</v>
       </c>
       <c r="D66">
-        <v>0.0379571484850034</v>
+        <v>0.1992794545299406</v>
       </c>
       <c r="E66">
-        <v>1.663874274461209</v>
+        <v>1.214039414561101</v>
       </c>
       <c r="F66">
-        <v>0.7494383472639063</v>
+        <v>0.4789386456270677</v>
       </c>
       <c r="G66">
-        <v>0.4554587940245517</v>
+        <v>0.2188719668749233</v>
       </c>
       <c r="H66">
-        <v>-0.1590332495308552</v>
+        <v>0.2278705713550674</v>
       </c>
       <c r="I66">
-        <v>-1.176086594448152</v>
+        <v>-0.5600014468927177</v>
       </c>
       <c r="J66">
-        <v>-0.3819929988453213</v>
+        <v>-0.3829931271900506</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -2518,31 +2518,31 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-0.5285354170196463</v>
+        <v>-1.302144126270795</v>
       </c>
       <c r="C67">
-        <v>0.1393014095400347</v>
+        <v>0.4903316482499018</v>
       </c>
       <c r="D67">
-        <v>0.201470512498982</v>
+        <v>0.1849301027459894</v>
       </c>
       <c r="E67">
-        <v>0.3931731225797069</v>
+        <v>0.997865995757135</v>
       </c>
       <c r="F67">
-        <v>0.3469252296735287</v>
+        <v>0.3867460892791783</v>
       </c>
       <c r="G67">
-        <v>0.2763367305596804</v>
+        <v>0.4988844982174486</v>
       </c>
       <c r="H67">
-        <v>0.1406069839196183</v>
+        <v>0.2756301945498103</v>
       </c>
       <c r="I67">
-        <v>-0.1134182502437711</v>
+        <v>-0.5700527902257917</v>
       </c>
       <c r="J67">
-        <v>-0.106685265576375</v>
+        <v>-0.3827560180670524</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -2550,31 +2550,31 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-1.099508236727645</v>
+        <v>-1.626848351080124</v>
       </c>
       <c r="C68">
-        <v>0.8504949361295983</v>
+        <v>0.7463017592974051</v>
       </c>
       <c r="D68">
-        <v>0.2174852422584187</v>
+        <v>-0.1379951517276515</v>
       </c>
       <c r="E68">
-        <v>0.8565279591902085</v>
+        <v>1.533387324270659</v>
       </c>
       <c r="F68">
-        <v>0.6569812962593264</v>
+        <v>0.6207971787845676</v>
       </c>
       <c r="G68">
-        <v>0.6340376731361865</v>
+        <v>0.2226417447645412</v>
       </c>
       <c r="H68">
-        <v>-0.1162118309950547</v>
+        <v>0.4882695697494855</v>
       </c>
       <c r="I68">
-        <v>-0.6580614617718619</v>
+        <v>-0.3799204223136485</v>
       </c>
       <c r="J68">
-        <v>-0.1697850458681597</v>
+        <v>0.1404723212237314</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -2582,31 +2582,31 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-1.170617351557523</v>
+        <v>-1.85551504170068</v>
       </c>
       <c r="C69">
-        <v>0.9930503196537234</v>
+        <v>1.220802544400607</v>
       </c>
       <c r="D69">
-        <v>-0.1280148427184292</v>
+        <v>-0.3725280189451475</v>
       </c>
       <c r="E69">
-        <v>1.489646242754368</v>
+        <v>2.006795576286941</v>
       </c>
       <c r="F69">
-        <v>0.6521814046414096</v>
+        <v>0.8897001075029186</v>
       </c>
       <c r="G69">
-        <v>0.4743185906388495</v>
+        <v>0.7035312719923131</v>
       </c>
       <c r="H69">
-        <v>0.1811749206814525</v>
+        <v>-0.5063387997103171</v>
       </c>
       <c r="I69">
-        <v>-1.438407705205122</v>
+        <v>-0.4287943455553815</v>
       </c>
       <c r="J69">
-        <v>-0.1294682201690248</v>
+        <v>0.02787036599180037</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -2614,31 +2614,31 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-0.5445185033973202</v>
+        <v>-0.7625724794832999</v>
       </c>
       <c r="C70">
-        <v>0.2275194015841865</v>
+        <v>0.386343617478601</v>
       </c>
       <c r="D70">
-        <v>0.1561294545175466</v>
+        <v>0.2645640999345722</v>
       </c>
       <c r="E70">
-        <v>0.4241547519313211</v>
+        <v>0.5332987314187514</v>
       </c>
       <c r="F70">
-        <v>0.2726142351869904</v>
+        <v>0.3542812066698017</v>
       </c>
       <c r="G70">
-        <v>0.3045169409778473</v>
+        <v>0.3333049254128716</v>
       </c>
       <c r="H70">
-        <v>0.1151175417650213</v>
+        <v>0.01772602877631665</v>
       </c>
       <c r="I70">
-        <v>-0.133006359050789</v>
+        <v>-0.2785270770165932</v>
       </c>
       <c r="J70">
-        <v>-0.1960403377619693</v>
+        <v>-0.1693395360316645</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -2646,31 +2646,31 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-0.02560979180522755</v>
+        <v>-1.67273014217335</v>
       </c>
       <c r="C71">
-        <v>0.0118778404371046</v>
+        <v>0.1156736249869144</v>
       </c>
       <c r="D71">
-        <v>0.01511252843085029</v>
+        <v>0.2455364685828057</v>
       </c>
       <c r="E71">
-        <v>0.0181647124006433</v>
+        <v>0.9516814460087484</v>
       </c>
       <c r="F71">
-        <v>0.01258300245558644</v>
+        <v>0.9410960496627517</v>
       </c>
       <c r="G71">
-        <v>0.01429355448836541</v>
+        <v>0.7414576798829555</v>
       </c>
       <c r="H71">
-        <v>0.01025150993470675</v>
+        <v>0.2094963304984725</v>
       </c>
       <c r="I71">
-        <v>-0.002773754246182931</v>
+        <v>-0.2161949010036801</v>
       </c>
       <c r="J71">
-        <v>-0.008465819651297807</v>
+        <v>-0.4761752664824191</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -2678,31 +2678,31 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.6181593732928535</v>
+        <v>-0.03137211749760475</v>
       </c>
       <c r="C72">
-        <v>0.4358908850311883</v>
+        <v>0.01014943689244328</v>
       </c>
       <c r="D72">
-        <v>0.09484759737300238</v>
+        <v>0.01276358889486187</v>
       </c>
       <c r="E72">
-        <v>0.5744553431151306</v>
+        <v>0.01811366991169518</v>
       </c>
       <c r="F72">
-        <v>0.3405840760234538</v>
+        <v>0.01861882406727548</v>
       </c>
       <c r="G72">
-        <v>0.3366067522979747</v>
+        <v>0.0182100340270056</v>
       </c>
       <c r="H72">
-        <v>0.09832437598568579</v>
+        <v>0.01087666443484178</v>
       </c>
       <c r="I72">
-        <v>-0.2107394715952729</v>
+        <v>-0.005814710701315906</v>
       </c>
       <c r="J72">
-        <v>-0.03394240376268615</v>
+        <v>-0.007103343288594784</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -2710,31 +2710,31 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-1.49748129634755</v>
+        <v>-3.418594193437801</v>
       </c>
       <c r="C73">
-        <v>0.7553592471265007</v>
+        <v>1.606159020556529</v>
       </c>
       <c r="D73">
-        <v>-0.008014275046172413</v>
+        <v>0.2235171164443444</v>
       </c>
       <c r="E73">
-        <v>1.51112577789904</v>
+        <v>2.616611576706531</v>
       </c>
       <c r="F73">
-        <v>0.763799331437653</v>
+        <v>0.9294160530095781</v>
       </c>
       <c r="G73">
-        <v>0.2528392698781164</v>
+        <v>0.9752453920399633</v>
       </c>
       <c r="H73">
-        <v>0.1449679482384863</v>
+        <v>-0.7882274886440124</v>
       </c>
       <c r="I73">
-        <v>-0.4429577086117262</v>
+        <v>-1.413782757209628</v>
       </c>
       <c r="J73">
-        <v>0.1793943414314078</v>
+        <v>-1.58038051486129</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -2742,31 +2742,31 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-0.02700189291655035</v>
+        <v>-0.5334909686074283</v>
       </c>
       <c r="C74">
-        <v>0.01348762527944176</v>
+        <v>0.262473115856818</v>
       </c>
       <c r="D74">
-        <v>0.008171870259125738</v>
+        <v>0.1271457954894088</v>
       </c>
       <c r="E74">
-        <v>0.01452596839359642</v>
+        <v>0.3597146326115421</v>
       </c>
       <c r="F74">
-        <v>0.01949708283827665</v>
+        <v>0.2974414827778309</v>
       </c>
       <c r="G74">
-        <v>0.01942128835475374</v>
+        <v>0.3057416159111839</v>
       </c>
       <c r="H74">
-        <v>0.006008993642675213</v>
+        <v>0.06584924207850287</v>
       </c>
       <c r="I74">
-        <v>-0.002770902336318109</v>
+        <v>-0.1728415824200998</v>
       </c>
       <c r="J74">
-        <v>-0.007115637208615157</v>
+        <v>-0.09859668309606025</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -2774,31 +2774,31 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-1.199691678933382</v>
+        <v>-1.265539881083113</v>
       </c>
       <c r="C75">
-        <v>0.3697438953233955</v>
+        <v>0.5790093653594376</v>
       </c>
       <c r="D75">
-        <v>0.1053880102464979</v>
+        <v>0.1885191709598042</v>
       </c>
       <c r="E75">
-        <v>1.463218731448324</v>
+        <v>1.035143450123552</v>
       </c>
       <c r="F75">
-        <v>0.6292378293957003</v>
+        <v>0.5857455281604446</v>
       </c>
       <c r="G75">
-        <v>0.1120826731990146</v>
+        <v>0.4146543913498429</v>
       </c>
       <c r="H75">
-        <v>0.2501465135613166</v>
+        <v>0.1802733302951198</v>
       </c>
       <c r="I75">
-        <v>-0.5127819455747086</v>
+        <v>-0.5305980900783419</v>
       </c>
       <c r="J75">
-        <v>-0.1141596200720831</v>
+        <v>-0.2271187664532764</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -2806,31 +2806,31 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-1.050705722585551</v>
+        <v>-2.06606905553991</v>
       </c>
       <c r="C76">
-        <v>0.9468070311398549</v>
+        <v>1.312463723070431</v>
       </c>
       <c r="D76">
-        <v>0.1903838403477077</v>
+        <v>0.2110329394067499</v>
       </c>
       <c r="E76">
-        <v>1.269252865608951</v>
+        <v>1.34195946650876</v>
       </c>
       <c r="F76">
-        <v>0.5709442836647014</v>
+        <v>0.4732837885292243</v>
       </c>
       <c r="G76">
-        <v>0.4116329275359717</v>
+        <v>0.648722241204609</v>
       </c>
       <c r="H76">
-        <v>0.1589697678233775</v>
+        <v>0.2207798432729606</v>
       </c>
       <c r="I76">
-        <v>-1.268152707602147</v>
+        <v>-1.018874672596061</v>
       </c>
       <c r="J76">
-        <v>-0.2650648228277888</v>
+        <v>-0.6567522689323709</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -2838,31 +2838,31 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>-2.379661420609735</v>
+        <v>-0.8452088435568459</v>
       </c>
       <c r="C77">
-        <v>2.123418815567604</v>
+        <v>0.2835313710002875</v>
       </c>
       <c r="D77">
-        <v>0.227549322059345</v>
+        <v>0.2094351820524071</v>
       </c>
       <c r="E77">
-        <v>2.221754346770389</v>
+        <v>0.5516629235279726</v>
       </c>
       <c r="F77">
-        <v>0.7722193961453129</v>
+        <v>0.4789342690770771</v>
       </c>
       <c r="G77">
-        <v>0.7928097545639338</v>
+        <v>0.4171416140912433</v>
       </c>
       <c r="H77">
-        <v>-0.4949939975359317</v>
+        <v>0.06169594858158824</v>
       </c>
       <c r="I77">
-        <v>-1.883433073772808</v>
+        <v>-0.2084612711906123</v>
       </c>
       <c r="J77">
-        <v>-0.6341468654053486</v>
+        <v>-0.09905236740421504</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -2870,31 +2870,31 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-0.4381594947770794</v>
+        <v>-0.7194727819131059</v>
       </c>
       <c r="C78">
-        <v>0.1328601488069897</v>
+        <v>0.5349296336302416</v>
       </c>
       <c r="D78">
-        <v>0.1447703971883144</v>
+        <v>0.1591992142356722</v>
       </c>
       <c r="E78">
-        <v>0.3635337002641256</v>
+        <v>0.5617363946741876</v>
       </c>
       <c r="F78">
-        <v>0.2911745517139452</v>
+        <v>0.2662078476859323</v>
       </c>
       <c r="G78">
-        <v>0.3337743014993572</v>
+        <v>0.3333892649881994</v>
       </c>
       <c r="H78">
-        <v>0.1006518108786788</v>
+        <v>0.04598921663939386</v>
       </c>
       <c r="I78">
-        <v>-0.1199442158502666</v>
+        <v>-0.2133450498898004</v>
       </c>
       <c r="J78">
-        <v>-0.1154791692345669</v>
+        <v>-0.03292591590576383</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -2902,31 +2902,31 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-1.315200113746133</v>
+        <v>-0.02822442332445225</v>
       </c>
       <c r="C79">
-        <v>0.7870574925732545</v>
+        <v>0.009883943740490956</v>
       </c>
       <c r="D79">
-        <v>-0.09039089636441003</v>
+        <v>0.01215506097939954</v>
       </c>
       <c r="E79">
-        <v>1.815461524443994</v>
+        <v>0.0208639644787308</v>
       </c>
       <c r="F79">
-        <v>0.6561735653183864</v>
+        <v>0.01677782074363027</v>
       </c>
       <c r="G79">
-        <v>0.5435394510242217</v>
+        <v>0.01425113876211384</v>
       </c>
       <c r="H79">
-        <v>0.0006902827435446676</v>
+        <v>0.01140924930630948</v>
       </c>
       <c r="I79">
-        <v>-1.250743304466593</v>
+        <v>-0.005831229761532803</v>
       </c>
       <c r="J79">
-        <v>-0.4278155461183875</v>
+        <v>-0.000657960876454617</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -2934,31 +2934,31 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-1.751752524166578</v>
+        <v>-1.845367024800974</v>
       </c>
       <c r="C80">
-        <v>0.3338455389902257</v>
+        <v>0.9483935661573456</v>
       </c>
       <c r="D80">
-        <v>-0.1645198396461327</v>
+        <v>0.36897467114387</v>
       </c>
       <c r="E80">
-        <v>1.116061184159469</v>
+        <v>1.129517424328243</v>
       </c>
       <c r="F80">
-        <v>1.386497047922925</v>
+        <v>0.5689693479795723</v>
       </c>
       <c r="G80">
-        <v>0.9042872762608036</v>
+        <v>0.5974695421940556</v>
       </c>
       <c r="H80">
-        <v>-0.07647190015298201</v>
+        <v>-0.1377493672072317</v>
       </c>
       <c r="I80">
-        <v>-0.8123487968937514</v>
+        <v>-0.6744278508142327</v>
       </c>
       <c r="J80">
-        <v>-0.3608246948258943</v>
+        <v>-0.3993300687362238</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -2966,31 +2966,31 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>-0.02615304859955004</v>
+        <v>-0.4983413667554599</v>
       </c>
       <c r="C81">
-        <v>0.009189272302677926</v>
+        <v>0.146379816713303</v>
       </c>
       <c r="D81">
-        <v>0.01484384547765022</v>
+        <v>0.1786581546291017</v>
       </c>
       <c r="E81">
-        <v>0.02167424341380662</v>
+        <v>0.4226006292395885</v>
       </c>
       <c r="F81">
-        <v>0.01457509270654099</v>
+        <v>0.3197086073074368</v>
       </c>
       <c r="G81">
-        <v>0.01180732851533617</v>
+        <v>0.2196099951150718</v>
       </c>
       <c r="H81">
-        <v>0.01164864492405224</v>
+        <v>0.142278242842781</v>
       </c>
       <c r="I81">
-        <v>-0.002742467303033161</v>
+        <v>-0.2259834933147578</v>
       </c>
       <c r="J81">
-        <v>0.0004004972518991075</v>
+        <v>-0.08473967207190325</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -2998,31 +2998,31 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.02110448805258367</v>
+        <v>-1.828301277844826</v>
       </c>
       <c r="C82">
-        <v>0.009096260328888191</v>
+        <v>0.4303575520635207</v>
       </c>
       <c r="D82">
-        <v>0.01157245334466101</v>
+        <v>0.3006832324857946</v>
       </c>
       <c r="E82">
-        <v>0.01840891562012077</v>
+        <v>0.7937561882247316</v>
       </c>
       <c r="F82">
-        <v>0.01481307748976254</v>
+        <v>0.8786969905287699</v>
       </c>
       <c r="G82">
-        <v>0.0134305199534198</v>
+        <v>0.7849221641919596</v>
       </c>
       <c r="H82">
-        <v>0.008222260716348007</v>
+        <v>0.3558414362872669</v>
       </c>
       <c r="I82">
-        <v>-0.002735172735962104</v>
+        <v>-0.6059667059586361</v>
       </c>
       <c r="J82">
-        <v>-0.003084052953518464</v>
+        <v>-0.2019413470811942</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -3030,31 +3030,31 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.4017610420638086</v>
+        <v>-1.979456491676803</v>
       </c>
       <c r="C83">
-        <v>0.2653628017446544</v>
+        <v>0.8114891431218367</v>
       </c>
       <c r="D83">
-        <v>0.1189972760904458</v>
+        <v>-0.2383725167119922</v>
       </c>
       <c r="E83">
-        <v>0.3683238391744395</v>
+        <v>1.633061290174533</v>
       </c>
       <c r="F83">
-        <v>0.2798444467233891</v>
+        <v>0.8504117933120195</v>
       </c>
       <c r="G83">
-        <v>0.2327589490210239</v>
+        <v>0.6799065601805311</v>
       </c>
       <c r="H83">
-        <v>0.1266448723535741</v>
+        <v>0.2137941893431068</v>
       </c>
       <c r="I83">
-        <v>-0.1095045692573555</v>
+        <v>-0.8791789013402489</v>
       </c>
       <c r="J83">
-        <v>-0.07537901475512954</v>
+        <v>-0.8229169332567878</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -3062,31 +3062,31 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>-2.123450382087354</v>
+        <v>-1.676143879511952</v>
       </c>
       <c r="C84">
-        <v>0.2133276169670095</v>
+        <v>0.59007904526996</v>
       </c>
       <c r="D84">
-        <v>0.08014518498448706</v>
+        <v>0.3052881964909946</v>
       </c>
       <c r="E84">
-        <v>1.93374722084763</v>
+        <v>0.9842437493487844</v>
       </c>
       <c r="F84">
-        <v>0.7871351387073294</v>
+        <v>0.8035159532778908</v>
       </c>
       <c r="G84">
-        <v>0.723670120259059</v>
+        <v>0.713592384989997</v>
       </c>
       <c r="H84">
-        <v>0.3394870753300653</v>
+        <v>-0.160504042158993</v>
       </c>
       <c r="I84">
-        <v>-0.5574446277225784</v>
+        <v>-0.4854150085518678</v>
       </c>
       <c r="J84">
-        <v>-0.138077599962312</v>
+        <v>-0.3424316049858264</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -3094,31 +3094,31 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-0.6010579491673552</v>
+        <v>-0.9980577816664367</v>
       </c>
       <c r="C85">
-        <v>0.443790011284194</v>
+        <v>0.3141985517000649</v>
       </c>
       <c r="D85">
-        <v>0.1343874566258491</v>
+        <v>0.1174039068785291</v>
       </c>
       <c r="E85">
-        <v>0.5999081744571368</v>
+        <v>0.7109199009245968</v>
       </c>
       <c r="F85">
-        <v>0.3252563131524678</v>
+        <v>0.462670454515612</v>
       </c>
       <c r="G85">
-        <v>0.3271938106937487</v>
+        <v>0.3200845142808441</v>
       </c>
       <c r="H85">
-        <v>0.1336427545764384</v>
+        <v>0.1922589862214942</v>
       </c>
       <c r="I85">
-        <v>-0.2494252657055469</v>
+        <v>-0.3099175495831186</v>
       </c>
       <c r="J85">
-        <v>-0.2124057817124239</v>
+        <v>-0.03501156058345353</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -3126,31 +3126,31 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-1.763275668636283</v>
+        <v>-1.822535806459084</v>
       </c>
       <c r="C86">
-        <v>0.6848644504880493</v>
+        <v>0.6175033795414002</v>
       </c>
       <c r="D86">
-        <v>0.3621643855257135</v>
+        <v>0.1149247641558265</v>
       </c>
       <c r="E86">
-        <v>1.391898673340936</v>
+        <v>1.432046248657169</v>
       </c>
       <c r="F86">
-        <v>0.5519313092390818</v>
+        <v>0.537898360127391</v>
       </c>
       <c r="G86">
-        <v>0.4593436545813151</v>
+        <v>0.6292594465438816</v>
       </c>
       <c r="H86">
-        <v>0.3733498960570103</v>
+        <v>0.2618341994004479</v>
       </c>
       <c r="I86">
-        <v>-0.747396048504983</v>
+        <v>-0.5210616603485705</v>
       </c>
       <c r="J86">
-        <v>-0.3934582192710194</v>
+        <v>-0.4055427162149773</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -3158,31 +3158,31 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>-0.5945257522434639</v>
+        <v>-0.6217989752974924</v>
       </c>
       <c r="C87">
-        <v>0.1554635265594187</v>
+        <v>0.2469776548669105</v>
       </c>
       <c r="D87">
-        <v>0.2239584080712407</v>
+        <v>0.3445511103545941</v>
       </c>
       <c r="E87">
-        <v>0.635540076590619</v>
+        <v>0.5191522376710743</v>
       </c>
       <c r="F87">
-        <v>0.2663934735005681</v>
+        <v>0.2559695854158092</v>
       </c>
       <c r="G87">
-        <v>0.3732167143871093</v>
+        <v>0.3426175185561154</v>
       </c>
       <c r="H87">
-        <v>0.1282891030534855</v>
+        <v>0.0683648802388812</v>
       </c>
       <c r="I87">
-        <v>-0.2054284247694728</v>
+        <v>-0.3133272133729653</v>
       </c>
       <c r="J87">
-        <v>-0.1149389468278453</v>
+        <v>-0.1633071004282288</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -3190,31 +3190,31 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-0.02581685698259044</v>
+        <v>-2.358791005477538</v>
       </c>
       <c r="C88">
-        <v>0.009318702211024477</v>
+        <v>0.6157070286434094</v>
       </c>
       <c r="D88">
-        <v>0.01436340185094192</v>
+        <v>0.5460273019526829</v>
       </c>
       <c r="E88">
-        <v>0.01609644332449425</v>
+        <v>0.6643604980941321</v>
       </c>
       <c r="F88">
-        <v>0.01631934626877349</v>
+        <v>1.295751641575871</v>
       </c>
       <c r="G88">
-        <v>0.01697077710387938</v>
+        <v>1.18019221199204</v>
       </c>
       <c r="H88">
-        <v>0.009648008422094135</v>
+        <v>0.3260720191754735</v>
       </c>
       <c r="I88">
-        <v>-0.002754720438089725</v>
+        <v>-0.8424552243885374</v>
       </c>
       <c r="J88">
-        <v>-0.006893860051157897</v>
+        <v>-0.1535426765676085</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -3222,31 +3222,31 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-1.10368312126989</v>
+        <v>-1.484354361833713</v>
       </c>
       <c r="C89">
-        <v>0.6710542303719242</v>
+        <v>0.1347573858976378</v>
       </c>
       <c r="D89">
-        <v>0.1743886881509016</v>
+        <v>0.3584574288479957</v>
       </c>
       <c r="E89">
-        <v>1.04825622912827</v>
+        <v>1.283370228637853</v>
       </c>
       <c r="F89">
-        <v>0.55875652605121</v>
+        <v>0.6351753416510817</v>
       </c>
       <c r="G89">
-        <v>0.4735661058038249</v>
+        <v>0.5882121074316564</v>
       </c>
       <c r="H89">
-        <v>0.1004269733083919</v>
+        <v>-0.3648928937663069</v>
       </c>
       <c r="I89">
-        <v>-0.5543620773270032</v>
+        <v>-0.5963687535720328</v>
       </c>
       <c r="J89">
-        <v>-0.1911142745096655</v>
+        <v>-0.4769598109206288</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -3254,31 +3254,31 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-0.7892285891141251</v>
+        <v>-1.941381981491009</v>
       </c>
       <c r="C90">
-        <v>0.197408991858278</v>
+        <v>0.9282898728785245</v>
       </c>
       <c r="D90">
-        <v>0.2119297580364119</v>
+        <v>-0.135903214548016</v>
       </c>
       <c r="E90">
-        <v>0.7801840336203656</v>
+        <v>1.197185121034331</v>
       </c>
       <c r="F90">
-        <v>0.3508668161098547</v>
+        <v>1.234399981633973</v>
       </c>
       <c r="G90">
-        <v>0.275112907677212</v>
+        <v>0.6876561238491652</v>
       </c>
       <c r="H90">
-        <v>0.2624968819879755</v>
+        <v>0.3049293270353678</v>
       </c>
       <c r="I90">
-        <v>-0.1841986662939606</v>
+        <v>-0.9229049657276424</v>
       </c>
       <c r="J90">
-        <v>0.01196195894171325</v>
+        <v>-0.5209066343959216</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -3286,31 +3286,31 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.002737846897915838</v>
+        <v>-0.736603729665731</v>
       </c>
       <c r="C91">
-        <v>0.0008750211911825264</v>
+        <v>0.2066106779192732</v>
       </c>
       <c r="D91">
-        <v>0.001013798030358435</v>
+        <v>0.2136065599353025</v>
       </c>
       <c r="E91">
-        <v>0.001720724472375355</v>
+        <v>0.4981339565145594</v>
       </c>
       <c r="F91">
-        <v>0.001829515462932948</v>
+        <v>0.3275579613325639</v>
       </c>
       <c r="G91">
-        <v>0.001888459877196693</v>
+        <v>0.3163610948744862</v>
       </c>
       <c r="H91">
-        <v>0.0009203592726075583</v>
+        <v>0.08646445313720515</v>
       </c>
       <c r="I91">
-        <v>-0.0002760474120018067</v>
+        <v>-0.1910644335545418</v>
       </c>
       <c r="J91">
-        <v>-0.0010955683152743</v>
+        <v>-0.142069692530903</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -3318,31 +3318,31 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-2.800592391697724</v>
+        <v>-1.666708608953326</v>
       </c>
       <c r="C92">
-        <v>0.5653227689814294</v>
+        <v>0.5435578581793893</v>
       </c>
       <c r="D92">
-        <v>0.6018932049302844</v>
+        <v>-0.1057300182248216</v>
       </c>
       <c r="E92">
-        <v>1.211235608554723</v>
+        <v>1.437022659133397</v>
       </c>
       <c r="F92">
-        <v>1.474222402112398</v>
+        <v>0.7822031651088642</v>
       </c>
       <c r="G92">
-        <v>1.452981121059779</v>
+        <v>0.6712042529976431</v>
       </c>
       <c r="H92">
-        <v>-0.4472143647774589</v>
+        <v>-0.2146661364773566</v>
       </c>
       <c r="I92">
-        <v>-1.205557664134014</v>
+        <v>-0.512355104938093</v>
       </c>
       <c r="J92">
-        <v>-0.4889562540793505</v>
+        <v>-0.1588528133651071</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -3350,31 +3350,31 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-1.821478051312035</v>
+        <v>-0.488044485657707</v>
       </c>
       <c r="C93">
-        <v>0.6295095377852805</v>
+        <v>0.2540976881127868</v>
       </c>
       <c r="D93">
-        <v>0.1516307940512938</v>
+        <v>0.1726634316254408</v>
       </c>
       <c r="E93">
-        <v>1.474751944088131</v>
+        <v>0.3838503929892915</v>
       </c>
       <c r="F93">
-        <v>0.6891476152462247</v>
+        <v>0.2821653915557553</v>
       </c>
       <c r="G93">
-        <v>0.2485098584967217</v>
+        <v>0.24812924518987</v>
       </c>
       <c r="H93">
-        <v>0.2968337584206928</v>
+        <v>0.06419827719161635</v>
       </c>
       <c r="I93">
-        <v>-0.2509923167046492</v>
+        <v>-0.1918750128096067</v>
       </c>
       <c r="J93">
-        <v>-0.01515056408145491</v>
+        <v>-0.0614904291096265</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -3382,31 +3382,31 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-1.209793457454609</v>
+        <v>-0.9897293376785816</v>
       </c>
       <c r="C94">
-        <v>0.8240418236975091</v>
+        <v>0.2169077386907992</v>
       </c>
       <c r="D94">
-        <v>0.1243819328597013</v>
+        <v>0.3050520386360875</v>
       </c>
       <c r="E94">
-        <v>1.20791563128538</v>
+        <v>0.7775044641265159</v>
       </c>
       <c r="F94">
-        <v>0.5773473950424379</v>
+        <v>0.4061616618157249</v>
       </c>
       <c r="G94">
-        <v>0.445655496937386</v>
+        <v>0.2581492681852449</v>
       </c>
       <c r="H94">
-        <v>-0.008167136615538572</v>
+        <v>0.2214302548595428</v>
       </c>
       <c r="I94">
-        <v>-0.5589514338902957</v>
+        <v>-0.2678477240547943</v>
       </c>
       <c r="J94">
-        <v>-0.2348536759624592</v>
+        <v>-0.1057252967735851</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -3414,31 +3414,31 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-0.173426266417853</v>
+        <v>-1.907290775497368</v>
       </c>
       <c r="C95">
-        <v>0.1028445623921306</v>
+        <v>0.6012187971030633</v>
       </c>
       <c r="D95">
-        <v>0.04801934927744836</v>
+        <v>0.3571891224543256</v>
       </c>
       <c r="E95">
-        <v>0.1045519724846462</v>
+        <v>1.140925600209268</v>
       </c>
       <c r="F95">
-        <v>0.1264762033050576</v>
+        <v>0.7924849289464722</v>
       </c>
       <c r="G95">
-        <v>0.1368608557040531</v>
+        <v>0.9130009355936907</v>
       </c>
       <c r="H95">
-        <v>0.04237522040445037</v>
+        <v>-0.0848847472321172</v>
       </c>
       <c r="I95">
-        <v>-0.02667868923284638</v>
+        <v>-0.5819600470427966</v>
       </c>
       <c r="J95">
-        <v>-0.0465458178679266</v>
+        <v>-0.4982396221250773</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -3446,31 +3446,31 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-1.400416825654775</v>
+        <v>-1.993069019856999</v>
       </c>
       <c r="C96">
-        <v>0.3024318412520849</v>
+        <v>0.6977953948737485</v>
       </c>
       <c r="D96">
-        <v>0.1440702973961518</v>
+        <v>0.7129893014841728</v>
       </c>
       <c r="E96">
-        <v>1.545730709152417</v>
+        <v>1.151615973097478</v>
       </c>
       <c r="F96">
-        <v>0.8558829419690879</v>
+        <v>0.937339041833257</v>
       </c>
       <c r="G96">
-        <v>0.1532459380845862</v>
+        <v>0.8687670029532862</v>
       </c>
       <c r="H96">
-        <v>0.1707970128457644</v>
+        <v>-0.1724661867639785</v>
       </c>
       <c r="I96">
-        <v>-0.5897796623823064</v>
+        <v>-0.9645259591918689</v>
       </c>
       <c r="J96">
-        <v>-0.07732470149370209</v>
+        <v>0.07871528021412226</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -3478,31 +3478,31 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-1.102549771317238</v>
+        <v>-0.1710476377479205</v>
       </c>
       <c r="C97">
-        <v>0.2230906184990835</v>
+        <v>0.07626855024789105</v>
       </c>
       <c r="D97">
-        <v>0.7124198541955182</v>
+        <v>0.08309527597652248</v>
       </c>
       <c r="E97">
-        <v>1.130974372249042</v>
+        <v>0.1365461895249079</v>
       </c>
       <c r="F97">
-        <v>0.6149553155312811</v>
+        <v>0.1178646712071665</v>
       </c>
       <c r="G97">
-        <v>0.538320334958786</v>
+        <v>0.09584013202181207</v>
       </c>
       <c r="H97">
-        <v>0.1860909751201807</v>
+        <v>0.06116099497171422</v>
       </c>
       <c r="I97">
-        <v>-1.276963153198333</v>
+        <v>-0.05451915168969469</v>
       </c>
       <c r="J97">
-        <v>0.1404905190359423</v>
+        <v>0.003948016071018997</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -3510,31 +3510,31 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-1.765067564394945</v>
+        <v>-0.4045427353717369</v>
       </c>
       <c r="C98">
-        <v>0.8021020905817611</v>
+        <v>0.2296223297069442</v>
       </c>
       <c r="D98">
-        <v>-0.1240038615593802</v>
+        <v>0.1006830741586318</v>
       </c>
       <c r="E98">
-        <v>1.70389336890403</v>
+        <v>0.3839581397872393</v>
       </c>
       <c r="F98">
-        <v>0.9999276148984781</v>
+        <v>0.2861960857272978</v>
       </c>
       <c r="G98">
-        <v>0.6424514867201406</v>
+        <v>0.2373148469488019</v>
       </c>
       <c r="H98">
-        <v>-0.4449558652500806</v>
+        <v>0.07179129108252828</v>
       </c>
       <c r="I98">
-        <v>-0.5797583433897068</v>
+        <v>-0.1977340391498182</v>
       </c>
       <c r="J98">
-        <v>-0.2347223811618543</v>
+        <v>-0.05919351022053563</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -3542,31 +3542,31 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-1.831184212391278</v>
+        <v>-2.004771429924317</v>
       </c>
       <c r="C99">
-        <v>0.8257564804727034</v>
+        <v>0.7031115196256223</v>
       </c>
       <c r="D99">
-        <v>0.4221431281042229</v>
+        <v>0.4499504284147475</v>
       </c>
       <c r="E99">
-        <v>0.998745671557879</v>
+        <v>0.6929139048626953</v>
       </c>
       <c r="F99">
-        <v>0.6602594897533161</v>
+        <v>0.9241184088900564</v>
       </c>
       <c r="G99">
-        <v>0.7795709568372859</v>
+        <v>0.8206211048205646</v>
       </c>
       <c r="H99">
-        <v>-0.1864039138652877</v>
+        <v>-0.03533927470703927</v>
       </c>
       <c r="I99">
-        <v>-0.4244826497295859</v>
+        <v>-0.6260419064701035</v>
       </c>
       <c r="J99">
-        <v>-0.5585533148349784</v>
+        <v>-0.5263335898423588</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -3574,31 +3574,31 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-1.795972031150394</v>
+        <v>-0.002575572754769588</v>
       </c>
       <c r="C100">
-        <v>0.1750430549968431</v>
+        <v>0.001119952707854537</v>
       </c>
       <c r="D100">
-        <v>0.1353578632609063</v>
+        <v>0.001651123889699355</v>
       </c>
       <c r="E100">
-        <v>1.825115759370769</v>
+        <v>0.001565281430233439</v>
       </c>
       <c r="F100">
-        <v>0.6545053383357303</v>
+        <v>0.001509710556941649</v>
       </c>
       <c r="G100">
-        <v>0.6309124350824307</v>
+        <v>0.001446780659782436</v>
       </c>
       <c r="H100">
-        <v>0.3890484299649394</v>
+        <v>0.001174720534984382</v>
       </c>
       <c r="I100">
-        <v>-0.9497686009143786</v>
+        <v>-0.0005902213225455612</v>
       </c>
       <c r="J100">
-        <v>-0.3425077717047127</v>
+        <v>-0.0002216752930911355</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -3606,31 +3606,31 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-1.424868802479882</v>
+        <v>-0.02183626299193075</v>
       </c>
       <c r="C101">
-        <v>0.494777371216545</v>
+        <v>0.007920562779360672</v>
       </c>
       <c r="D101">
-        <v>0.3139860352678049</v>
+        <v>0.01364759587799905</v>
       </c>
       <c r="E101">
-        <v>1.389563600941668</v>
+        <v>0.0151306840816681</v>
       </c>
       <c r="F101">
-        <v>0.383294950523565</v>
+        <v>0.0149256960158509</v>
       </c>
       <c r="G101">
-        <v>0.2818974333586712</v>
+        <v>0.0156040197700182</v>
       </c>
       <c r="H101">
-        <v>0.4219353503427959</v>
+        <v>0.00504525147265747</v>
       </c>
       <c r="I101">
-        <v>-0.5703696466127964</v>
+        <v>-0.005932655729836585</v>
       </c>
       <c r="J101">
-        <v>-0.5551346972042375</v>
+        <v>-0.005211004725228757</v>
       </c>
     </row>
   </sheetData>
